--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER round 1/totalEER.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER round 1/totalEER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\EER round 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10FF6F5-B991-4255-938C-CA937120865A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36CD71D-A345-40EF-AE41-EBE783166D92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8190" activeTab="2" xr2:uid="{9C47AA7C-261B-4F09-B73C-E42281976B1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="2" xr2:uid="{E869420E-0FDF-44FA-8FA3-45EAC0230B05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09EFF1C-0012-4E54-AD45-2A7B8283B2DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C07CCE-5C77-4AE6-BF8A-C43125AAD21A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3DCC53-B710-4F58-AE3F-AD2A262B598B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5529AE25-DC30-4D2C-8CD0-23DBBEECC53E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2D3FB6-CC6B-4EE0-AD58-B09E811BE2E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A0BB6D-505F-476D-BE0F-5B74BD668F54}">
   <dimension ref="A1:CM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER round 1/totalEER.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER round 1/totalEER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\EER round 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36CD71D-A345-40EF-AE41-EBE783166D92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED9E36-5295-4E44-98F1-2048C18C0AFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="2" xr2:uid="{E869420E-0FDF-44FA-8FA3-45EAC0230B05}"/>
   </bookViews>
@@ -385,23 +385,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5529AE25-DC30-4D2C-8CD0-23DBBEECC53E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.49999999999999989</v>
+        <v>0.18909089850313116</v>
       </c>
       <c r="B1">
-        <v>0.49999999999999989</v>
+        <v>0.1883158691412665</v>
       </c>
       <c r="C1">
-        <v>0.49999999999999989</v>
+        <v>0.18950428968160471</v>
+      </c>
+      <c r="D1">
+        <v>0.18206111442472653</v>
+      </c>
+      <c r="E1">
+        <v>0.18689628297044972</v>
+      </c>
+      <c r="F1">
+        <v>0.18708011148677436</v>
       </c>
     </row>
   </sheetData>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A0BB6D-505F-476D-BE0F-5B74BD668F54}">
-  <dimension ref="A1:CM6"/>
+  <dimension ref="A1:CM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CM6"/>
+      <selection sqref="A1:CM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,546 +433,546 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.7155612596462977E-2</v>
+        <v>1.133595207567264E-2</v>
       </c>
       <c r="C1">
-        <v>3.3742456931169146E-2</v>
+        <v>2.0245477976133731E-2</v>
       </c>
       <c r="D1">
-        <v>4.9797977851080026E-2</v>
+        <v>2.8055289508600319E-2</v>
       </c>
       <c r="E1">
-        <v>6.5356631091886677E-2</v>
+        <v>3.5052586738858929E-2</v>
       </c>
       <c r="F1">
-        <v>8.0450184411359996E-2</v>
+        <v>4.1476097110426408E-2</v>
       </c>
       <c r="G1">
-        <v>9.5107983402496432E-2</v>
+        <v>4.7442073441311038E-2</v>
       </c>
       <c r="H1">
-        <v>0.10935718674664133</v>
+        <v>5.3020320329168404E-2</v>
       </c>
       <c r="I1">
-        <v>0.12322297494860293</v>
+        <v>5.8306681071428772E-2</v>
       </c>
       <c r="J1">
-        <v>0.13672873599731955</v>
+        <v>6.3366814901072599E-2</v>
       </c>
       <c r="K1">
-        <v>0.14989623089514512</v>
+        <v>6.8163450190302136E-2</v>
       </c>
       <c r="L1">
-        <v>0.16274574157878666</v>
+        <v>7.2766572855526457E-2</v>
       </c>
       <c r="M1">
-        <v>0.17529620340124472</v>
+        <v>7.7171256715126466E-2</v>
       </c>
       <c r="N1">
-        <v>0.18756532404533627</v>
+        <v>8.1402602823653858E-2</v>
       </c>
       <c r="O1">
-        <v>0.19956969048621981</v>
+        <v>8.5482678879294727E-2</v>
       </c>
       <c r="P1">
-        <v>0.21132486540518708</v>
+        <v>8.9469690077423197E-2</v>
       </c>
       <c r="Q1">
-        <v>0.22284547427361553</v>
+        <v>9.3346423802018227E-2</v>
       </c>
       <c r="R1">
-        <v>0.23414528416926061</v>
+        <v>9.7103756884824768E-2</v>
       </c>
       <c r="S1">
-        <v>0.24523727525278555</v>
+        <v>0.10079211917286052</v>
       </c>
       <c r="T1">
-        <v>0.25613370571706928</v>
+        <v>0.1044055832181213</v>
       </c>
       <c r="U1">
-        <v>0.26684617092250068</v>
+        <v>0.10797718221069025</v>
       </c>
       <c r="V1">
-        <v>0.2773856573457319</v>
+        <v>0.11149708246507969</v>
       </c>
       <c r="W1">
-        <v>0.28776259189519765</v>
+        <v>0.11494839610109345</v>
       </c>
       <c r="X1">
-        <v>0.29798688708242155</v>
+        <v>0.11834485678311464</v>
       </c>
       <c r="Y1">
-        <v>0.30806798248229206</v>
+        <v>0.12169584695859641</v>
       </c>
       <c r="Z1">
-        <v>0.31801488286689883</v>
+        <v>0.12499319047160765</v>
       </c>
       <c r="AA1">
-        <v>0.32783619335516739</v>
+        <v>0.12825434348893511</v>
       </c>
       <c r="AB1">
-        <v>0.33754015188354686</v>
+        <v>0.13147708087997079</v>
       </c>
       <c r="AC1">
-        <v>0.34713465927066989</v>
+        <v>0.13469432323518002</v>
       </c>
       <c r="AD1">
-        <v>0.35662730712059604</v>
+        <v>0.13790103301117568</v>
       </c>
       <c r="AE1">
-        <v>0.36602540378443865</v>
+        <v>0.14108125396382767</v>
       </c>
       <c r="AF1">
-        <v>0.37533599857840966</v>
+        <v>0.14422402313542265</v>
       </c>
       <c r="AG1">
-        <v>0.38456590443721844</v>
+        <v>0.1473425497665514</v>
       </c>
       <c r="AH1">
-        <v>0.39372171916498894</v>
+        <v>0.15044476088600064</v>
       </c>
       <c r="AI1">
-        <v>0.40280984543114079</v>
+        <v>0.15357503498514177</v>
       </c>
       <c r="AJ1">
-        <v>0.41183650964576757</v>
+        <v>0.15671067177852036</v>
       </c>
       <c r="AK1">
-        <v>0.42080777983773193</v>
+        <v>0.15984723407319501</v>
       </c>
       <c r="AL1">
-        <v>0.42972958264880423</v>
+        <v>0.16299981218658047</v>
       </c>
       <c r="AM1">
-        <v>0.43860771954854771</v>
+        <v>0.16618996582695891</v>
       </c>
       <c r="AN1">
-        <v>0.44744788236716176</v>
+        <v>0.16939576958643773</v>
       </c>
       <c r="AO1">
-        <v>0.45625566823703806</v>
+        <v>0.17261478825469967</v>
       </c>
       <c r="AP1">
-        <v>0.46503659402824471</v>
+        <v>0.17586345199843667</v>
       </c>
       <c r="AQ1">
-        <v>0.47379611035847935</v>
+        <v>0.17912797850090934</v>
       </c>
       <c r="AR1">
-        <v>0.48253961525412609</v>
+        <v>0.18241618924442793</v>
       </c>
       <c r="AS1">
-        <v>0.49127246753589116</v>
+        <v>0.18572211654801282</v>
       </c>
       <c r="AT1">
-        <v>0.49999999999999989</v>
+        <v>0.18909089850313116</v>
       </c>
       <c r="AU1">
-        <v>0.50872753246410884</v>
+        <v>0.1924868102507229</v>
       </c>
       <c r="AV1">
-        <v>0.51746038474587386</v>
+        <v>0.19591235662823892</v>
       </c>
       <c r="AW1">
-        <v>0.52620388964152054</v>
+        <v>0.19935640697568061</v>
       </c>
       <c r="AX1">
-        <v>0.53496340597175529</v>
+        <v>0.20283396152227279</v>
       </c>
       <c r="AY1">
-        <v>0.543744331762962</v>
+        <v>0.20638387129276847</v>
       </c>
       <c r="AZ1">
-        <v>0.55255211763283818</v>
+        <v>0.20997209984272686</v>
       </c>
       <c r="BA1">
-        <v>0.56139228045145229</v>
+        <v>0.21358642598654687</v>
       </c>
       <c r="BB1">
-        <v>0.57027041735119577</v>
+        <v>0.21724319485156784</v>
       </c>
       <c r="BC1">
-        <v>0.57919222016226812</v>
+        <v>0.22095258887842342</v>
       </c>
       <c r="BD1">
-        <v>0.58816349035423243</v>
+        <v>0.22473144176172025</v>
       </c>
       <c r="BE1">
-        <v>0.59719015456885927</v>
+        <v>0.2285792598202272</v>
       </c>
       <c r="BF1">
-        <v>0.60627828083501101</v>
+        <v>0.23250127414347929</v>
       </c>
       <c r="BG1">
-        <v>0.61543409556278161</v>
+        <v>0.2365271063088889</v>
       </c>
       <c r="BH1">
-        <v>0.62466400142159029</v>
+        <v>0.24068106948735843</v>
       </c>
       <c r="BI1">
-        <v>0.63397459621556129</v>
+        <v>0.24490206196714748</v>
       </c>
       <c r="BJ1">
-        <v>0.64337269287940391</v>
+        <v>0.24927490828858265</v>
       </c>
       <c r="BK1">
-        <v>0.65286534072933011</v>
+        <v>0.25384060335707259</v>
       </c>
       <c r="BL1">
-        <v>0.66245984811645309</v>
+        <v>0.25859990177228287</v>
       </c>
       <c r="BM1">
-        <v>0.67216380664483255</v>
+        <v>0.26357240028602663</v>
       </c>
       <c r="BN1">
-        <v>0.68198511713310117</v>
+        <v>0.26873163854165877</v>
       </c>
       <c r="BO1">
-        <v>0.69193201751770794</v>
+        <v>0.27406413965972293</v>
       </c>
       <c r="BP1">
-        <v>0.7020131129175784</v>
+        <v>0.27965534411121634</v>
       </c>
       <c r="BQ1">
-        <v>0.71223740810480241</v>
+        <v>0.28543927841665051</v>
       </c>
       <c r="BR1">
-        <v>0.72261434265426805</v>
+        <v>0.29149915882781341</v>
       </c>
       <c r="BS1">
-        <v>0.73315382907749926</v>
+        <v>0.29790438499385763</v>
       </c>
       <c r="BT1">
-        <v>0.74386629428293072</v>
+        <v>0.30462510348492378</v>
       </c>
       <c r="BU1">
-        <v>0.7547627247472144</v>
+        <v>0.31160642675746847</v>
       </c>
       <c r="BV1">
-        <v>0.76585471583073939</v>
+        <v>0.31887501055561018</v>
       </c>
       <c r="BW1">
-        <v>0.77715452572638455</v>
+        <v>0.32674490466962447</v>
       </c>
       <c r="BX1">
-        <v>0.78867513459481287</v>
+        <v>0.33518633296278966</v>
       </c>
       <c r="BY1">
-        <v>0.80043030951378003</v>
+        <v>0.3441536204823496</v>
       </c>
       <c r="BZ1">
-        <v>0.81243467595466379</v>
+        <v>0.35376188388409768</v>
       </c>
       <c r="CA1">
-        <v>0.82470379659875515</v>
+        <v>0.36404518719227746</v>
       </c>
       <c r="CB1">
-        <v>0.83725425842121326</v>
+        <v>0.37542398601982108</v>
       </c>
       <c r="CC1">
-        <v>0.85010376910485486</v>
+        <v>0.38784041058245622</v>
       </c>
       <c r="CD1">
-        <v>0.86327126400268051</v>
+        <v>0.40123274395784236</v>
       </c>
       <c r="CE1">
-        <v>0.87677702505139687</v>
+        <v>0.41617957708398889</v>
       </c>
       <c r="CF1">
-        <v>0.89064281325335881</v>
+        <v>0.43297307203685642</v>
       </c>
       <c r="CG1">
-        <v>0.90489201659750373</v>
+        <v>0.4517706591484153</v>
       </c>
       <c r="CH1">
-        <v>0.91954981558863991</v>
+        <v>0.47380190383856735</v>
       </c>
       <c r="CI1">
-        <v>0.93464336890811306</v>
+        <v>0.50016726021234836</v>
       </c>
       <c r="CJ1">
-        <v>0.9502020221489198</v>
+        <v>0.53314581194138444</v>
       </c>
       <c r="CK1">
-        <v>0.96625754306883083</v>
+        <v>0.57730956947015122</v>
       </c>
       <c r="CL1">
-        <v>0.98284438740353719</v>
+        <v>0.63946012819974918</v>
       </c>
       <c r="CM1">
-        <v>1</v>
+        <v>0.75937373737373737</v>
       </c>
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0.86186666666666711</v>
       </c>
       <c r="B2">
-        <v>0.98284438740353708</v>
+        <v>0.64943625946341332</v>
       </c>
       <c r="C2">
-        <v>0.96625754306883083</v>
+        <v>0.5797546351582552</v>
       </c>
       <c r="D2">
-        <v>0.9502020221489198</v>
+        <v>0.5353268139273899</v>
       </c>
       <c r="E2">
-        <v>0.9346433689081135</v>
+        <v>0.50127534438686805</v>
       </c>
       <c r="F2">
-        <v>0.91954981558863991</v>
+        <v>0.47407395928658252</v>
       </c>
       <c r="G2">
-        <v>0.90489201659750373</v>
+        <v>0.45138117718462689</v>
       </c>
       <c r="H2">
-        <v>0.89064281325335881</v>
+        <v>0.43181585648293158</v>
       </c>
       <c r="I2">
-        <v>0.87677702505139687</v>
+        <v>0.4148735931083567</v>
       </c>
       <c r="J2">
-        <v>0.86327126400268051</v>
+        <v>0.40008232356178036</v>
       </c>
       <c r="K2">
-        <v>0.85010376910485486</v>
+        <v>0.38657413582667799</v>
       </c>
       <c r="L2">
-        <v>0.83725425842121326</v>
+        <v>0.37435156461229491</v>
       </c>
       <c r="M2">
-        <v>0.82470379659875537</v>
+        <v>0.36306221792827542</v>
       </c>
       <c r="N2">
-        <v>0.81243467595466379</v>
+        <v>0.35259341023459195</v>
       </c>
       <c r="O2">
-        <v>0.80043030951378014</v>
+        <v>0.34285229859664246</v>
       </c>
       <c r="P2">
-        <v>0.78867513459481287</v>
+        <v>0.33390542910638438</v>
       </c>
       <c r="Q2">
-        <v>0.77715452572638455</v>
+        <v>0.32553766664805317</v>
       </c>
       <c r="R2">
-        <v>0.76585471583073927</v>
+        <v>0.3176120774713766</v>
       </c>
       <c r="S2">
-        <v>0.7547627247472144</v>
+        <v>0.31020624585531886</v>
       </c>
       <c r="T2">
-        <v>0.74386629428293083</v>
+        <v>0.30321583047215611</v>
       </c>
       <c r="U2">
-        <v>0.73315382907749926</v>
+        <v>0.29666486994020869</v>
       </c>
       <c r="V2">
-        <v>0.72261434265426805</v>
+        <v>0.2904598302750423</v>
       </c>
       <c r="W2">
-        <v>0.71223740810480241</v>
+        <v>0.28450726401110554</v>
       </c>
       <c r="X2">
-        <v>0.7020131129175784</v>
+        <v>0.27880301083557407</v>
       </c>
       <c r="Y2">
-        <v>0.69193201751770794</v>
+        <v>0.27333334750042731</v>
       </c>
       <c r="Z2">
-        <v>0.68198511713310117</v>
+        <v>0.26804876198293204</v>
       </c>
       <c r="AA2">
-        <v>0.67216380664483266</v>
+        <v>0.2629603731545942</v>
       </c>
       <c r="AB2">
-        <v>0.6624598481164532</v>
+        <v>0.25803830016818097</v>
       </c>
       <c r="AC2">
-        <v>0.65286534072933022</v>
+        <v>0.25332317844031627</v>
       </c>
       <c r="AD2">
-        <v>0.64337269287940391</v>
+        <v>0.24878004905342188</v>
       </c>
       <c r="AE2">
-        <v>0.6339745962155614</v>
+        <v>0.24435989986087775</v>
       </c>
       <c r="AF2">
-        <v>0.6246640014215904</v>
+        <v>0.24002908256633027</v>
       </c>
       <c r="AG2">
-        <v>0.61543409556278161</v>
+        <v>0.23579736998836157</v>
       </c>
       <c r="AH2">
-        <v>0.60627828083501101</v>
+        <v>0.23166461627781515</v>
       </c>
       <c r="AI2">
-        <v>0.59719015456885916</v>
+        <v>0.22768435260694969</v>
       </c>
       <c r="AJ2">
-        <v>0.58816349035423254</v>
+        <v>0.22380603353571182</v>
       </c>
       <c r="AK2">
-        <v>0.57919222016226823</v>
+        <v>0.22001084301566923</v>
       </c>
       <c r="AL2">
-        <v>0.57027041735119566</v>
+        <v>0.21630805668730102</v>
       </c>
       <c r="AM2">
-        <v>0.5613922804514524</v>
+        <v>0.21271345611466988</v>
       </c>
       <c r="AN2">
-        <v>0.55255211763283829</v>
+        <v>0.20918635419135878</v>
       </c>
       <c r="AO2">
-        <v>0.54374433176296211</v>
+        <v>0.20571429403742728</v>
       </c>
       <c r="AP2">
-        <v>0.53496340597175529</v>
+        <v>0.20230775916383015</v>
       </c>
       <c r="AQ2">
-        <v>0.52620388964152054</v>
+        <v>0.19894177467916435</v>
       </c>
       <c r="AR2">
-        <v>0.51746038474587397</v>
+        <v>0.19561741354766571</v>
       </c>
       <c r="AS2">
-        <v>0.50872753246410884</v>
+        <v>0.19232088162681246</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.18909089850313118</v>
       </c>
       <c r="AU2">
-        <v>0.49127246753589138</v>
+        <v>0.18588235195754244</v>
       </c>
       <c r="AV2">
-        <v>0.48253961525412609</v>
+        <v>0.18269122811661442</v>
       </c>
       <c r="AW2">
-        <v>0.47379611035847946</v>
+        <v>0.17950131509758882</v>
       </c>
       <c r="AX2">
-        <v>0.46503659402824493</v>
+        <v>0.17632087273003855</v>
       </c>
       <c r="AY2">
-        <v>0.45625566823703795</v>
+        <v>0.17317663028270128</v>
       </c>
       <c r="AZ2">
-        <v>0.44744788236716182</v>
+        <v>0.17003205386906819</v>
       </c>
       <c r="BA2">
-        <v>0.43860771954854771</v>
+        <v>0.16687200464022983</v>
       </c>
       <c r="BB2">
-        <v>0.42972958264880434</v>
+        <v>0.16370448933766937</v>
       </c>
       <c r="BC2">
-        <v>0.42080777983773193</v>
+        <v>0.16053145249305892</v>
       </c>
       <c r="BD2">
-        <v>0.41183650964576757</v>
+        <v>0.15735864959429291</v>
       </c>
       <c r="BE2">
-        <v>0.40280984543114073</v>
+        <v>0.1541786575222811</v>
       </c>
       <c r="BF2">
-        <v>0.39372171916498899</v>
+        <v>0.15098809285687165</v>
       </c>
       <c r="BG2">
-        <v>0.38456590443721844</v>
+        <v>0.14779853962822401</v>
       </c>
       <c r="BH2">
-        <v>0.37533599857840971</v>
+        <v>0.14461577640038945</v>
       </c>
       <c r="BI2">
-        <v>0.36602540378443871</v>
+        <v>0.14139427140182709</v>
       </c>
       <c r="BJ2">
-        <v>0.35662730712059604</v>
+        <v>0.13817533796442028</v>
       </c>
       <c r="BK2">
-        <v>0.34713465927066983</v>
+        <v>0.13496944294359592</v>
       </c>
       <c r="BL2">
-        <v>0.33754015188354686</v>
+        <v>0.1317632311897376</v>
       </c>
       <c r="BM2">
-        <v>0.32783619335516739</v>
+        <v>0.12855284906602116</v>
       </c>
       <c r="BN2">
-        <v>0.31801488286689883</v>
+        <v>0.12531162104051652</v>
       </c>
       <c r="BO2">
-        <v>0.30806798248229206</v>
+        <v>0.12202121659091347</v>
       </c>
       <c r="BP2">
-        <v>0.29798688708242171</v>
+        <v>0.11870665079364234</v>
       </c>
       <c r="BQ2">
-        <v>0.28776259189519759</v>
+        <v>0.11532495436378984</v>
       </c>
       <c r="BR2">
-        <v>0.27738565734573201</v>
+        <v>0.11189604331707402</v>
       </c>
       <c r="BS2">
-        <v>0.26684617092250074</v>
+        <v>0.10842832879514329</v>
       </c>
       <c r="BT2">
-        <v>0.25613370571706934</v>
+        <v>0.10489083483108104</v>
       </c>
       <c r="BU2">
-        <v>0.24523727525278566</v>
+        <v>0.10124706552625799</v>
       </c>
       <c r="BV2">
-        <v>0.23414528416926067</v>
+        <v>9.7489874277304198E-2</v>
       </c>
       <c r="BW2">
-        <v>0.22284547427361553</v>
+        <v>9.3692593734216401E-2</v>
       </c>
       <c r="BX2">
-        <v>0.21132486540518708</v>
+        <v>8.9812907231328815E-2</v>
       </c>
       <c r="BY2">
-        <v>0.19956969048621989</v>
+        <v>8.5807134866114243E-2</v>
       </c>
       <c r="BZ2">
-        <v>0.18756532404533618</v>
+        <v>8.1672366221493084E-2</v>
       </c>
       <c r="CA2">
-        <v>0.1752962034012448</v>
+        <v>7.7380193282110141E-2</v>
       </c>
       <c r="CB2">
-        <v>0.16274574157878677</v>
+        <v>7.297503046024735E-2</v>
       </c>
       <c r="CC2">
-        <v>0.14989623089514517</v>
+        <v>6.8386728594735949E-2</v>
       </c>
       <c r="CD2">
-        <v>0.13672873599731961</v>
+        <v>6.3549023591640899E-2</v>
       </c>
       <c r="CE2">
-        <v>0.12322297494860315</v>
+        <v>5.849022514947215E-2</v>
       </c>
       <c r="CF2">
-        <v>0.10935718674664133</v>
+        <v>5.3162408532827082E-2</v>
       </c>
       <c r="CG2">
-        <v>9.5107983402496404E-2</v>
+        <v>4.7483009645264744E-2</v>
       </c>
       <c r="CH2">
-        <v>8.0450184411359954E-2</v>
+        <v>4.1452295342874583E-2</v>
       </c>
       <c r="CI2">
-        <v>6.5356631091886802E-2</v>
+        <v>3.4975101945169819E-2</v>
       </c>
       <c r="CJ2">
-        <v>4.9797977851080151E-2</v>
+        <v>2.7940988037901952E-2</v>
       </c>
       <c r="CK2">
-        <v>3.374245693116925E-2</v>
+        <v>2.0160094400847334E-2</v>
       </c>
       <c r="CL2">
-        <v>1.7155612596462845E-2</v>
+        <v>1.1161818056732872E-2</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -974,546 +983,546 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1.7155612596462977E-2</v>
+        <v>1.1448974417542895E-2</v>
       </c>
       <c r="C3">
-        <v>3.3742456931169146E-2</v>
+        <v>2.0400437787204181E-2</v>
       </c>
       <c r="D3">
-        <v>4.9797977851080026E-2</v>
+        <v>2.8281002151898917E-2</v>
       </c>
       <c r="E3">
-        <v>6.5356631091886677E-2</v>
+        <v>3.5428494543955108E-2</v>
       </c>
       <c r="F3">
-        <v>8.0450184411359996E-2</v>
+        <v>4.1995650849211356E-2</v>
       </c>
       <c r="G3">
-        <v>9.5107983402496432E-2</v>
+        <v>4.8056893052324232E-2</v>
       </c>
       <c r="H3">
-        <v>0.10935718674664133</v>
+        <v>5.3768184980276253E-2</v>
       </c>
       <c r="I3">
-        <v>0.12322297494860293</v>
+        <v>5.9126444212763689E-2</v>
       </c>
       <c r="J3">
-        <v>0.13672873599731955</v>
+        <v>6.4223518390301548E-2</v>
       </c>
       <c r="K3">
-        <v>0.14989623089514512</v>
+        <v>6.9107028517517155E-2</v>
       </c>
       <c r="L3">
-        <v>0.16274574157878666</v>
+        <v>7.3803339802010315E-2</v>
       </c>
       <c r="M3">
-        <v>0.17529620340124472</v>
+        <v>7.8300648095465636E-2</v>
       </c>
       <c r="N3">
-        <v>0.18756532404533627</v>
+        <v>8.2642281159110736E-2</v>
       </c>
       <c r="O3">
-        <v>0.19956969048621981</v>
+        <v>8.6874337256174841E-2</v>
       </c>
       <c r="P3">
-        <v>0.21132486540518708</v>
+        <v>9.09536897817287E-2</v>
       </c>
       <c r="Q3">
-        <v>0.22284547427361553</v>
+        <v>9.489838643060261E-2</v>
       </c>
       <c r="R3">
-        <v>0.23414528416926061</v>
+        <v>9.8704640370530575E-2</v>
       </c>
       <c r="S3">
-        <v>0.24523727525278555</v>
+        <v>0.10241104242529181</v>
       </c>
       <c r="T3">
-        <v>0.25613370571706928</v>
+        <v>0.10602884911808158</v>
       </c>
       <c r="U3">
-        <v>0.26684617092250068</v>
+        <v>0.10958586313677735</v>
       </c>
       <c r="V3">
-        <v>0.2773856573457319</v>
+        <v>0.11306454158288799</v>
       </c>
       <c r="W3">
-        <v>0.28776259189519765</v>
+        <v>0.11647996677148892</v>
       </c>
       <c r="X3">
-        <v>0.29798688708242155</v>
+        <v>0.11983158859231059</v>
       </c>
       <c r="Y3">
-        <v>0.30806798248229206</v>
+        <v>0.12313033860303629</v>
       </c>
       <c r="Z3">
-        <v>0.31801488286689883</v>
+        <v>0.12639686848144416</v>
       </c>
       <c r="AA3">
-        <v>0.32783619335516739</v>
+        <v>0.12964350782308179</v>
       </c>
       <c r="AB3">
-        <v>0.33754015188354686</v>
+        <v>0.13284172688126039</v>
       </c>
       <c r="AC3">
-        <v>0.34713465927066989</v>
+        <v>0.13600645563067709</v>
       </c>
       <c r="AD3">
-        <v>0.35662730712059604</v>
+        <v>0.13917047119051371</v>
       </c>
       <c r="AE3">
-        <v>0.36602540378443865</v>
+        <v>0.14230688087695481</v>
       </c>
       <c r="AF3">
-        <v>0.37533599857840966</v>
+        <v>0.145407846305</v>
       </c>
       <c r="AG3">
-        <v>0.38456590443721844</v>
+        <v>0.1485028744288121</v>
       </c>
       <c r="AH3">
-        <v>0.39372171916498894</v>
+        <v>0.15156808963022195</v>
       </c>
       <c r="AI3">
-        <v>0.40280984543114079</v>
+        <v>0.15461899371896254</v>
       </c>
       <c r="AJ3">
-        <v>0.41183650964576757</v>
+        <v>0.15769060578136401</v>
       </c>
       <c r="AK3">
-        <v>0.42080777983773193</v>
+        <v>0.16074944960271476</v>
       </c>
       <c r="AL3">
-        <v>0.42972958264880423</v>
+        <v>0.16380165307792258</v>
       </c>
       <c r="AM3">
-        <v>0.43860771954854771</v>
+        <v>0.16684461159727679</v>
       </c>
       <c r="AN3">
-        <v>0.44744788236716176</v>
+        <v>0.16987309429163391</v>
       </c>
       <c r="AO3">
-        <v>0.45625566823703806</v>
+        <v>0.17291654432973602</v>
       </c>
       <c r="AP3">
-        <v>0.46503659402824471</v>
+        <v>0.17597561365459924</v>
       </c>
       <c r="AQ3">
-        <v>0.47379611035847935</v>
+        <v>0.17902854835567358</v>
       </c>
       <c r="AR3">
-        <v>0.48253961525412609</v>
+        <v>0.1820860418792673</v>
       </c>
       <c r="AS3">
-        <v>0.49127246753589116</v>
+        <v>0.18518261796844804</v>
       </c>
       <c r="AT3">
-        <v>0.49999999999999989</v>
+        <v>0.1883158691412665</v>
       </c>
       <c r="AU3">
-        <v>0.50872753246410884</v>
+        <v>0.19146385628910703</v>
       </c>
       <c r="AV3">
-        <v>0.51746038474587386</v>
+        <v>0.19464761523789684</v>
       </c>
       <c r="AW3">
-        <v>0.52620388964152054</v>
+        <v>0.19789306160904796</v>
       </c>
       <c r="AX3">
-        <v>0.53496340597175529</v>
+        <v>0.20116915071287317</v>
       </c>
       <c r="AY3">
-        <v>0.543744331762962</v>
+        <v>0.20446839862223595</v>
       </c>
       <c r="AZ3">
-        <v>0.55255211763283818</v>
+        <v>0.20778074930949594</v>
       </c>
       <c r="BA3">
-        <v>0.56139228045145229</v>
+        <v>0.21116868572738956</v>
       </c>
       <c r="BB3">
-        <v>0.57027041735119577</v>
+        <v>0.214591317174195</v>
       </c>
       <c r="BC3">
-        <v>0.57919222016226812</v>
+        <v>0.21809115745724944</v>
       </c>
       <c r="BD3">
-        <v>0.58816349035423243</v>
+        <v>0.22164136415352531</v>
       </c>
       <c r="BE3">
-        <v>0.59719015456885927</v>
+        <v>0.22525689884685357</v>
       </c>
       <c r="BF3">
-        <v>0.60627828083501101</v>
+        <v>0.22899549623158438</v>
       </c>
       <c r="BG3">
-        <v>0.61543409556278161</v>
+        <v>0.23287551119846348</v>
       </c>
       <c r="BH3">
-        <v>0.62466400142159029</v>
+        <v>0.2368101809386885</v>
       </c>
       <c r="BI3">
-        <v>0.63397459621556129</v>
+        <v>0.24081121741998776</v>
       </c>
       <c r="BJ3">
-        <v>0.64337269287940391</v>
+        <v>0.24490872747099149</v>
       </c>
       <c r="BK3">
-        <v>0.65286534072933011</v>
+        <v>0.24915261075146752</v>
       </c>
       <c r="BL3">
-        <v>0.66245984811645309</v>
+        <v>0.25355541092338796</v>
       </c>
       <c r="BM3">
-        <v>0.67216380664483255</v>
+        <v>0.25819713269098143</v>
       </c>
       <c r="BN3">
-        <v>0.68198511713310117</v>
+        <v>0.26299586884362502</v>
       </c>
       <c r="BO3">
-        <v>0.69193201751770794</v>
+        <v>0.26803563189631258</v>
       </c>
       <c r="BP3">
-        <v>0.7020131129175784</v>
+        <v>0.27327509469804001</v>
       </c>
       <c r="BQ3">
-        <v>0.71223740810480241</v>
+        <v>0.2787507458711353</v>
       </c>
       <c r="BR3">
-        <v>0.72261434265426805</v>
+        <v>0.28451702245724109</v>
       </c>
       <c r="BS3">
-        <v>0.73315382907749926</v>
+        <v>0.29055813555138205</v>
       </c>
       <c r="BT3">
-        <v>0.74386629428293072</v>
+        <v>0.29698960196888075</v>
       </c>
       <c r="BU3">
-        <v>0.7547627247472144</v>
+        <v>0.30402353336658761</v>
       </c>
       <c r="BV3">
-        <v>0.76585471583073939</v>
+        <v>0.31154015368339233</v>
       </c>
       <c r="BW3">
-        <v>0.77715452572638455</v>
+        <v>0.3195677576693719</v>
       </c>
       <c r="BX3">
-        <v>0.78867513459481287</v>
+        <v>0.32817634761589154</v>
       </c>
       <c r="BY3">
-        <v>0.80043030951378003</v>
+        <v>0.33739289822519036</v>
       </c>
       <c r="BZ3">
-        <v>0.81243467595466379</v>
+        <v>0.34730375508736605</v>
       </c>
       <c r="CA3">
-        <v>0.82470379659875515</v>
+        <v>0.35816469065595991</v>
       </c>
       <c r="CB3">
-        <v>0.83725425842121326</v>
+        <v>0.36999080416629382</v>
       </c>
       <c r="CC3">
-        <v>0.85010376910485486</v>
+        <v>0.38285634395041496</v>
       </c>
       <c r="CD3">
-        <v>0.86327126400268051</v>
+        <v>0.39650679095562069</v>
       </c>
       <c r="CE3">
-        <v>0.87677702505139687</v>
+        <v>0.41131569399275753</v>
       </c>
       <c r="CF3">
-        <v>0.89064281325335881</v>
+        <v>0.42819054850260818</v>
       </c>
       <c r="CG3">
-        <v>0.90489201659750373</v>
+        <v>0.44719568929110026</v>
       </c>
       <c r="CH3">
-        <v>0.91954981558863991</v>
+        <v>0.46845551792867712</v>
       </c>
       <c r="CI3">
-        <v>0.93464336890811306</v>
+        <v>0.49425750657330636</v>
       </c>
       <c r="CJ3">
-        <v>0.9502020221489198</v>
+        <v>0.52711055665852291</v>
       </c>
       <c r="CK3">
-        <v>0.96625754306883083</v>
+        <v>0.57193088248031854</v>
       </c>
       <c r="CL3">
-        <v>0.98284438740353719</v>
+        <v>0.64475654348894551</v>
       </c>
       <c r="CM3">
-        <v>1</v>
+        <v>0.76125252525252529</v>
       </c>
     </row>
     <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>0.84926666666666673</v>
       </c>
       <c r="B4">
-        <v>0.98284438740353708</v>
+        <v>0.65591130509257856</v>
       </c>
       <c r="C4">
-        <v>0.96625754306883083</v>
+        <v>0.58419210355674123</v>
       </c>
       <c r="D4">
-        <v>0.9502020221489198</v>
+        <v>0.53963366772631849</v>
       </c>
       <c r="E4">
-        <v>0.9346433689081135</v>
+        <v>0.50665107645084173</v>
       </c>
       <c r="F4">
-        <v>0.91954981558863991</v>
+        <v>0.48001248569498955</v>
       </c>
       <c r="G4">
-        <v>0.90489201659750373</v>
+        <v>0.45723079503741038</v>
       </c>
       <c r="H4">
-        <v>0.89064281325335881</v>
+        <v>0.43790672528278995</v>
       </c>
       <c r="I4">
-        <v>0.87677702505139687</v>
+        <v>0.42070651094373779</v>
       </c>
       <c r="J4">
-        <v>0.86327126400268051</v>
+        <v>0.4054913365145269</v>
       </c>
       <c r="K4">
-        <v>0.85010376910485486</v>
+        <v>0.39192543443919736</v>
       </c>
       <c r="L4">
-        <v>0.83725425842121326</v>
+        <v>0.37968526817045356</v>
       </c>
       <c r="M4">
-        <v>0.82470379659875537</v>
+        <v>0.36837558662160469</v>
       </c>
       <c r="N4">
-        <v>0.81243467595466379</v>
+        <v>0.35796304703649612</v>
       </c>
       <c r="O4">
-        <v>0.80043030951378014</v>
+        <v>0.34843393548062862</v>
       </c>
       <c r="P4">
-        <v>0.78867513459481287</v>
+        <v>0.3394437914012699</v>
       </c>
       <c r="Q4">
-        <v>0.77715452572638455</v>
+        <v>0.33095000353527942</v>
       </c>
       <c r="R4">
-        <v>0.76585471583073927</v>
+        <v>0.32284833141248526</v>
       </c>
       <c r="S4">
-        <v>0.7547627247472144</v>
+        <v>0.31518877929727696</v>
       </c>
       <c r="T4">
-        <v>0.74386629428293083</v>
+        <v>0.30793013695618104</v>
       </c>
       <c r="U4">
-        <v>0.73315382907749926</v>
+        <v>0.30108468445974046</v>
       </c>
       <c r="V4">
-        <v>0.72261434265426805</v>
+        <v>0.29454320088219932</v>
       </c>
       <c r="W4">
-        <v>0.71223740810480241</v>
+        <v>0.2882980344424792</v>
       </c>
       <c r="X4">
-        <v>0.7020131129175784</v>
+        <v>0.2823055314856136</v>
       </c>
       <c r="Y4">
-        <v>0.69193201751770794</v>
+        <v>0.27655526848569745</v>
       </c>
       <c r="Z4">
-        <v>0.68198511713310117</v>
+        <v>0.27105895918919343</v>
       </c>
       <c r="AA4">
-        <v>0.67216380664483266</v>
+        <v>0.26580858212548003</v>
       </c>
       <c r="AB4">
-        <v>0.6624598481164532</v>
+        <v>0.26071656874660748</v>
       </c>
       <c r="AC4">
-        <v>0.65286534072933022</v>
+        <v>0.25579094056256613</v>
       </c>
       <c r="AD4">
-        <v>0.64337269287940391</v>
+        <v>0.25107017615131255</v>
       </c>
       <c r="AE4">
-        <v>0.6339745962155614</v>
+        <v>0.24648274794553754</v>
       </c>
       <c r="AF4">
-        <v>0.6246640014215904</v>
+        <v>0.24199929517818916</v>
       </c>
       <c r="AG4">
-        <v>0.61543409556278161</v>
+        <v>0.23765427761027522</v>
       </c>
       <c r="AH4">
-        <v>0.60627828083501101</v>
+        <v>0.23339439085388711</v>
       </c>
       <c r="AI4">
-        <v>0.59719015456885916</v>
+        <v>0.22923208507845036</v>
       </c>
       <c r="AJ4">
-        <v>0.58816349035423254</v>
+        <v>0.2252055243286116</v>
       </c>
       <c r="AK4">
-        <v>0.57919222016226823</v>
+        <v>0.2212526361588687</v>
       </c>
       <c r="AL4">
-        <v>0.57027041735119566</v>
+        <v>0.21737213548992013</v>
       </c>
       <c r="AM4">
-        <v>0.5613922804514524</v>
+        <v>0.21355136449043888</v>
       </c>
       <c r="AN4">
-        <v>0.55255211763283829</v>
+        <v>0.20977580111254945</v>
       </c>
       <c r="AO4">
-        <v>0.54374433176296211</v>
+        <v>0.20607391292393892</v>
       </c>
       <c r="AP4">
-        <v>0.53496340597175529</v>
+        <v>0.20243678638958124</v>
       </c>
       <c r="AQ4">
-        <v>0.52620388964152054</v>
+        <v>0.19883134631551436</v>
       </c>
       <c r="AR4">
-        <v>0.51746038474587397</v>
+        <v>0.19526337384357018</v>
       </c>
       <c r="AS4">
-        <v>0.50872753246410884</v>
+        <v>0.19176221449342618</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.18831586914126652</v>
       </c>
       <c r="AU4">
-        <v>0.49127246753589138</v>
+        <v>0.18489449679966558</v>
       </c>
       <c r="AV4">
-        <v>0.48253961525412609</v>
+        <v>0.1815118376900578</v>
       </c>
       <c r="AW4">
-        <v>0.47379611035847946</v>
+        <v>0.17818371301126834</v>
       </c>
       <c r="AX4">
-        <v>0.46503659402824493</v>
+        <v>0.1748736747724545</v>
       </c>
       <c r="AY4">
-        <v>0.45625566823703795</v>
+        <v>0.17156935787132718</v>
       </c>
       <c r="AZ4">
-        <v>0.44744788236716182</v>
+        <v>0.16825753319612427</v>
       </c>
       <c r="BA4">
-        <v>0.43860771954854771</v>
+        <v>0.16498305892712367</v>
       </c>
       <c r="BB4">
-        <v>0.42972958264880434</v>
+        <v>0.16170615617350806</v>
       </c>
       <c r="BC4">
-        <v>0.42080777983773193</v>
+        <v>0.15845250087460527</v>
       </c>
       <c r="BD4">
-        <v>0.41183650964576757</v>
+        <v>0.15519495395938182</v>
       </c>
       <c r="BE4">
-        <v>0.40280984543114073</v>
+        <v>0.15193769674971574</v>
       </c>
       <c r="BF4">
-        <v>0.39372171916498899</v>
+        <v>0.14871141406082294</v>
       </c>
       <c r="BG4">
-        <v>0.38456590443721844</v>
+        <v>0.14551676975813724</v>
       </c>
       <c r="BH4">
-        <v>0.37533599857840971</v>
+        <v>0.14228991191084911</v>
       </c>
       <c r="BI4">
-        <v>0.36602540378443871</v>
+        <v>0.13903242120131146</v>
       </c>
       <c r="BJ4">
-        <v>0.35662730712059604</v>
+        <v>0.13575512441695003</v>
       </c>
       <c r="BK4">
-        <v>0.34713465927066983</v>
+        <v>0.1324767930596365</v>
       </c>
       <c r="BL4">
-        <v>0.33754015188354686</v>
+        <v>0.12919293472248389</v>
       </c>
       <c r="BM4">
-        <v>0.32783619335516739</v>
+        <v>0.12593115588765555</v>
       </c>
       <c r="BN4">
-        <v>0.31801488286689883</v>
+        <v>0.12263698770490995</v>
       </c>
       <c r="BO4">
-        <v>0.30806798248229206</v>
+        <v>0.11933715200503793</v>
       </c>
       <c r="BP4">
-        <v>0.29798688708242171</v>
+        <v>0.11599839559661294</v>
       </c>
       <c r="BQ4">
-        <v>0.28776259189519759</v>
+        <v>0.11262261180304969</v>
       </c>
       <c r="BR4">
-        <v>0.27738565734573201</v>
+        <v>0.10921585227669853</v>
       </c>
       <c r="BS4">
-        <v>0.26684617092250074</v>
+        <v>0.10575451266458746</v>
       </c>
       <c r="BT4">
-        <v>0.25613370571706934</v>
+        <v>0.10226172081779236</v>
       </c>
       <c r="BU4">
-        <v>0.24523727525278566</v>
+        <v>9.8783234109126608E-2</v>
       </c>
       <c r="BV4">
-        <v>0.23414528416926067</v>
+        <v>9.5247383487359297E-2</v>
       </c>
       <c r="BW4">
-        <v>0.22284547427361553</v>
+        <v>9.1634579948981318E-2</v>
       </c>
       <c r="BX4">
-        <v>0.21132486540518708</v>
+        <v>8.7934587318673499E-2</v>
       </c>
       <c r="BY4">
-        <v>0.19956969048621989</v>
+        <v>8.4121497487959315E-2</v>
       </c>
       <c r="BZ4">
-        <v>0.18756532404533618</v>
+        <v>8.0181389708135792E-2</v>
       </c>
       <c r="CA4">
-        <v>0.1752962034012448</v>
+        <v>7.6130255157438015E-2</v>
       </c>
       <c r="CB4">
-        <v>0.16274574157878677</v>
+        <v>7.1918926891957335E-2</v>
       </c>
       <c r="CC4">
-        <v>0.14989623089514517</v>
+        <v>6.7507903173858241E-2</v>
       </c>
       <c r="CD4">
-        <v>0.13672873599731961</v>
+        <v>6.2800506170383935E-2</v>
       </c>
       <c r="CE4">
-        <v>0.12322297494860315</v>
+        <v>5.7806650959935715E-2</v>
       </c>
       <c r="CF4">
-        <v>0.10935718674664133</v>
+        <v>5.2575188480666633E-2</v>
       </c>
       <c r="CG4">
-        <v>9.5107983402496404E-2</v>
+        <v>4.7002160937048128E-2</v>
       </c>
       <c r="CH4">
-        <v>8.0450184411359954E-2</v>
+        <v>4.0984547184924461E-2</v>
       </c>
       <c r="CI4">
-        <v>6.5356631091886802E-2</v>
+        <v>3.4561851713820022E-2</v>
       </c>
       <c r="CJ4">
-        <v>4.9797977851080151E-2</v>
+        <v>2.7624693711120914E-2</v>
       </c>
       <c r="CK4">
-        <v>3.374245693116925E-2</v>
+        <v>1.9972266512307137E-2</v>
       </c>
       <c r="CL4">
-        <v>1.7155612596462845E-2</v>
+        <v>1.1254267329492602E-2</v>
       </c>
       <c r="CM4">
         <v>0</v>
@@ -1524,548 +1533,2198 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1.7155612596462977E-2</v>
+        <v>1.1208625417937464E-2</v>
       </c>
       <c r="C5">
-        <v>3.3742456931169146E-2</v>
+        <v>2.0093984616963795E-2</v>
       </c>
       <c r="D5">
-        <v>4.9797977851080026E-2</v>
+        <v>2.7854546689224487E-2</v>
       </c>
       <c r="E5">
-        <v>6.5356631091886677E-2</v>
+        <v>3.4754323136089123E-2</v>
       </c>
       <c r="F5">
-        <v>8.0450184411359996E-2</v>
+        <v>4.1041510156607994E-2</v>
       </c>
       <c r="G5">
-        <v>9.5107983402496432E-2</v>
+        <v>4.6919939409119558E-2</v>
       </c>
       <c r="H5">
-        <v>0.10935718674664133</v>
+        <v>5.2468196357866793E-2</v>
       </c>
       <c r="I5">
-        <v>0.12322297494860293</v>
+        <v>5.7800327778948626E-2</v>
       </c>
       <c r="J5">
-        <v>0.13672873599731955</v>
+        <v>6.2921054636462859E-2</v>
       </c>
       <c r="K5">
-        <v>0.14989623089514512</v>
+        <v>6.780244231320498E-2</v>
       </c>
       <c r="L5">
-        <v>0.16274574157878666</v>
+        <v>7.2502383572357679E-2</v>
       </c>
       <c r="M5">
-        <v>0.17529620340124472</v>
+        <v>7.703982832424662E-2</v>
       </c>
       <c r="N5">
-        <v>0.18756532404533627</v>
+        <v>8.1428864997504971E-2</v>
       </c>
       <c r="O5">
-        <v>0.19956969048621981</v>
+        <v>8.5679966200351107E-2</v>
       </c>
       <c r="P5">
-        <v>0.21132486540518708</v>
+        <v>8.9828499299261941E-2</v>
       </c>
       <c r="Q5">
-        <v>0.22284547427361553</v>
+        <v>9.3877251987404792E-2</v>
       </c>
       <c r="R5">
-        <v>0.23414528416926061</v>
+        <v>9.7855845419676388E-2</v>
       </c>
       <c r="S5">
-        <v>0.24523727525278555</v>
+        <v>0.1017140182002623</v>
       </c>
       <c r="T5">
-        <v>0.25613370571706928</v>
+        <v>0.1054543792112768</v>
       </c>
       <c r="U5">
-        <v>0.26684617092250068</v>
+        <v>0.10910717103528512</v>
       </c>
       <c r="V5">
-        <v>0.2773856573457319</v>
+        <v>0.11267462733537625</v>
       </c>
       <c r="W5">
-        <v>0.28776259189519765</v>
+        <v>0.11615958032652235</v>
       </c>
       <c r="X5">
-        <v>0.29798688708242155</v>
+        <v>0.11957504465691246</v>
       </c>
       <c r="Y5">
-        <v>0.30806798248229206</v>
+        <v>0.12296088376432335</v>
       </c>
       <c r="Z5">
-        <v>0.31801488286689883</v>
+        <v>0.12632723656767203</v>
       </c>
       <c r="AA5">
-        <v>0.32783619335516739</v>
+        <v>0.12964686998050323</v>
       </c>
       <c r="AB5">
-        <v>0.33754015188354686</v>
+        <v>0.13289877190397925</v>
       </c>
       <c r="AC5">
-        <v>0.34713465927066989</v>
+        <v>0.13610599960034517</v>
       </c>
       <c r="AD5">
-        <v>0.35662730712059604</v>
+        <v>0.13927808025395655</v>
       </c>
       <c r="AE5">
-        <v>0.36602540378443865</v>
+        <v>0.14240898912477978</v>
       </c>
       <c r="AF5">
-        <v>0.37533599857840966</v>
+        <v>0.14550222500021523</v>
       </c>
       <c r="AG5">
-        <v>0.38456590443721844</v>
+        <v>0.14855990930041474</v>
       </c>
       <c r="AH5">
-        <v>0.39372171916498894</v>
+        <v>0.15164116442595113</v>
       </c>
       <c r="AI5">
-        <v>0.40280984543114079</v>
+        <v>0.15472746322757872</v>
       </c>
       <c r="AJ5">
-        <v>0.41183650964576757</v>
+        <v>0.15780672838892359</v>
       </c>
       <c r="AK5">
-        <v>0.42080777983773193</v>
+        <v>0.16088447663073105</v>
       </c>
       <c r="AL5">
-        <v>0.42972958264880423</v>
+        <v>0.16398383503084882</v>
       </c>
       <c r="AM5">
-        <v>0.43860771954854771</v>
+        <v>0.16708915689607423</v>
       </c>
       <c r="AN5">
-        <v>0.44744788236716176</v>
+        <v>0.17019447958515929</v>
       </c>
       <c r="AO5">
-        <v>0.45625566823703806</v>
+        <v>0.173354701581757</v>
       </c>
       <c r="AP5">
-        <v>0.46503659402824471</v>
+        <v>0.17653320822076243</v>
       </c>
       <c r="AQ5">
-        <v>0.47379611035847935</v>
+        <v>0.17972030675394315</v>
       </c>
       <c r="AR5">
-        <v>0.48253961525412609</v>
+        <v>0.1829367267820167</v>
       </c>
       <c r="AS5">
-        <v>0.49127246753589116</v>
+        <v>0.18618780160018322</v>
       </c>
       <c r="AT5">
-        <v>0.49999999999999989</v>
+        <v>0.18950428968160471</v>
       </c>
       <c r="AU5">
-        <v>0.50872753246410884</v>
+        <v>0.19285621612319262</v>
       </c>
       <c r="AV5">
-        <v>0.51746038474587386</v>
+        <v>0.19624918382610729</v>
       </c>
       <c r="AW5">
-        <v>0.52620388964152054</v>
+        <v>0.19969149435847683</v>
       </c>
       <c r="AX5">
-        <v>0.53496340597175529</v>
+        <v>0.20320542604886119</v>
       </c>
       <c r="AY5">
-        <v>0.543744331762962</v>
+        <v>0.20676919466558388</v>
       </c>
       <c r="AZ5">
-        <v>0.55255211763283818</v>
+        <v>0.21035984419546983</v>
       </c>
       <c r="BA5">
-        <v>0.56139228045145229</v>
+        <v>0.21396166722432361</v>
       </c>
       <c r="BB5">
-        <v>0.57027041735119577</v>
+        <v>0.21763314970137973</v>
       </c>
       <c r="BC5">
-        <v>0.57919222016226812</v>
+        <v>0.22140830187253016</v>
       </c>
       <c r="BD5">
-        <v>0.58816349035423243</v>
+        <v>0.22525106622492103</v>
       </c>
       <c r="BE5">
-        <v>0.59719015456885927</v>
+        <v>0.22913508398414431</v>
       </c>
       <c r="BF5">
-        <v>0.60627828083501101</v>
+        <v>0.23306785680910042</v>
       </c>
       <c r="BG5">
-        <v>0.61543409556278161</v>
+        <v>0.23709365482445283</v>
       </c>
       <c r="BH5">
-        <v>0.62466400142159029</v>
+        <v>0.24125020552110996</v>
       </c>
       <c r="BI5">
-        <v>0.63397459621556129</v>
+        <v>0.24557504942115926</v>
       </c>
       <c r="BJ5">
-        <v>0.64337269287940391</v>
+        <v>0.25002066143501706</v>
       </c>
       <c r="BK5">
-        <v>0.65286534072933011</v>
+        <v>0.25463097325596545</v>
       </c>
       <c r="BL5">
-        <v>0.66245984811645309</v>
+        <v>0.25938841123465101</v>
       </c>
       <c r="BM5">
-        <v>0.67216380664483255</v>
+        <v>0.26429473569162348</v>
       </c>
       <c r="BN5">
-        <v>0.68198511713310117</v>
+        <v>0.26940880240469028</v>
       </c>
       <c r="BO5">
-        <v>0.69193201751770794</v>
+        <v>0.2747762493726667</v>
       </c>
       <c r="BP5">
-        <v>0.7020131129175784</v>
+        <v>0.28037380753854807</v>
       </c>
       <c r="BQ5">
-        <v>0.71223740810480241</v>
+        <v>0.28616717490216403</v>
       </c>
       <c r="BR5">
-        <v>0.72261434265426805</v>
+        <v>0.29220841508535678</v>
       </c>
       <c r="BS5">
-        <v>0.73315382907749926</v>
+        <v>0.29867729150637912</v>
       </c>
       <c r="BT5">
-        <v>0.74386629428293072</v>
+        <v>0.3054670402860698</v>
       </c>
       <c r="BU5">
-        <v>0.7547627247472144</v>
+        <v>0.31259481531087624</v>
       </c>
       <c r="BV5">
-        <v>0.76585471583073939</v>
+        <v>0.32025243422919475</v>
       </c>
       <c r="BW5">
-        <v>0.77715452572638455</v>
+        <v>0.32833703271438658</v>
       </c>
       <c r="BX5">
-        <v>0.78867513459481287</v>
+        <v>0.33705982908095239</v>
       </c>
       <c r="BY5">
-        <v>0.80043030951378003</v>
+        <v>0.34646673763858005</v>
       </c>
       <c r="BZ5">
-        <v>0.81243467595466379</v>
+        <v>0.35655349951641763</v>
       </c>
       <c r="CA5">
-        <v>0.82470379659875515</v>
+        <v>0.36745374887475074</v>
       </c>
       <c r="CB5">
-        <v>0.83725425842121326</v>
+        <v>0.37931045160813748</v>
       </c>
       <c r="CC5">
-        <v>0.85010376910485486</v>
+        <v>0.39232821552919794</v>
       </c>
       <c r="CD5">
-        <v>0.86327126400268051</v>
+        <v>0.40649803915884974</v>
       </c>
       <c r="CE5">
-        <v>0.87677702505139687</v>
+        <v>0.42255261075078687</v>
       </c>
       <c r="CF5">
-        <v>0.89064281325335881</v>
+        <v>0.439980897236455</v>
       </c>
       <c r="CG5">
-        <v>0.90489201659750373</v>
+        <v>0.4598011465657999</v>
       </c>
       <c r="CH5">
-        <v>0.91954981558863991</v>
+        <v>0.48185351562500889</v>
       </c>
       <c r="CI5">
-        <v>0.93464336890811306</v>
+        <v>0.50841632977294882</v>
       </c>
       <c r="CJ5">
-        <v>0.9502020221489198</v>
+        <v>0.54009195147395717</v>
       </c>
       <c r="CK5">
-        <v>0.96625754306883083</v>
+        <v>0.58324668971622773</v>
       </c>
       <c r="CL5">
-        <v>0.98284438740353719</v>
+        <v>0.64668379556165945</v>
       </c>
       <c r="CM5">
-        <v>1</v>
+        <v>0.74662626262626253</v>
       </c>
     </row>
     <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>0.84580000000000022</v>
       </c>
       <c r="B6">
-        <v>0.98284438740353708</v>
+        <v>0.64214172012719206</v>
       </c>
       <c r="C6">
-        <v>0.96625754306883083</v>
+        <v>0.57541643295438516</v>
       </c>
       <c r="D6">
-        <v>0.9502020221489198</v>
+        <v>0.53149641275179971</v>
       </c>
       <c r="E6">
-        <v>0.9346433689081135</v>
+        <v>0.49700997614713205</v>
       </c>
       <c r="F6">
-        <v>0.91954981558863991</v>
+        <v>0.46910660767434031</v>
       </c>
       <c r="G6">
-        <v>0.90489201659750373</v>
+        <v>0.44641340370840454</v>
       </c>
       <c r="H6">
-        <v>0.89064281325335881</v>
+        <v>0.42731916758946198</v>
       </c>
       <c r="I6">
-        <v>0.87677702505139687</v>
+        <v>0.41127070222221368</v>
       </c>
       <c r="J6">
-        <v>0.86327126400268051</v>
+        <v>0.39726790401591883</v>
       </c>
       <c r="K6">
-        <v>0.85010376910485486</v>
+        <v>0.38452675841655798</v>
       </c>
       <c r="L6">
-        <v>0.83725425842121326</v>
+        <v>0.37299242857459253</v>
       </c>
       <c r="M6">
-        <v>0.82470379659875537</v>
+        <v>0.36244389596330179</v>
       </c>
       <c r="N6">
-        <v>0.81243467595466379</v>
+        <v>0.3527071642070343</v>
       </c>
       <c r="O6">
-        <v>0.80043030951378014</v>
+        <v>0.34364357482236374</v>
       </c>
       <c r="P6">
-        <v>0.78867513459481287</v>
+        <v>0.33524452335251098</v>
       </c>
       <c r="Q6">
-        <v>0.77715452572638455</v>
+        <v>0.32738888452896803</v>
       </c>
       <c r="R6">
-        <v>0.76585471583073927</v>
+        <v>0.32007204822492791</v>
       </c>
       <c r="S6">
-        <v>0.7547627247472144</v>
+        <v>0.31304355931489147</v>
       </c>
       <c r="T6">
-        <v>0.74386629428293083</v>
+        <v>0.30626175520394122</v>
       </c>
       <c r="U6">
-        <v>0.73315382907749926</v>
+        <v>0.29976948872001918</v>
       </c>
       <c r="V6">
-        <v>0.72261434265426805</v>
+        <v>0.29352743953983795</v>
       </c>
       <c r="W6">
-        <v>0.71223740810480241</v>
+        <v>0.28750505016452982</v>
       </c>
       <c r="X6">
-        <v>0.7020131129175784</v>
+        <v>0.28170115184846817</v>
       </c>
       <c r="Y6">
-        <v>0.69193201751770794</v>
+        <v>0.27617466668643215</v>
       </c>
       <c r="Z6">
-        <v>0.68198511713310117</v>
+        <v>0.2709096330682208</v>
       </c>
       <c r="AA6">
-        <v>0.67216380664483266</v>
+        <v>0.26581547556975738</v>
       </c>
       <c r="AB6">
-        <v>0.6624598481164532</v>
+        <v>0.26082852590748234</v>
       </c>
       <c r="AC6">
-        <v>0.65286534072933022</v>
+        <v>0.2559781555407864</v>
       </c>
       <c r="AD6">
-        <v>0.64337269287940391</v>
+        <v>0.25126430804066358</v>
       </c>
       <c r="AE6">
-        <v>0.6339745962155614</v>
+        <v>0.24665960461864245</v>
       </c>
       <c r="AF6">
-        <v>0.6246640014215904</v>
+        <v>0.24215636770420662</v>
       </c>
       <c r="AG6">
-        <v>0.61543409556278161</v>
+        <v>0.23774555248466039</v>
       </c>
       <c r="AH6">
-        <v>0.60627828083501101</v>
+        <v>0.23350691617156838</v>
       </c>
       <c r="AI6">
-        <v>0.59719015456885916</v>
+        <v>0.22939289773819851</v>
       </c>
       <c r="AJ6">
-        <v>0.58816349035423254</v>
+        <v>0.2253713645991354</v>
       </c>
       <c r="AK6">
-        <v>0.57919222016226823</v>
+        <v>0.22143848491900525</v>
       </c>
       <c r="AL6">
-        <v>0.57027041735119566</v>
+        <v>0.21761389910714357</v>
       </c>
       <c r="AM6">
-        <v>0.5613922804514524</v>
+        <v>0.21386436819932669</v>
       </c>
       <c r="AN6">
-        <v>0.55255211763283829</v>
+        <v>0.21017267889767613</v>
       </c>
       <c r="AO6">
-        <v>0.54374433176296211</v>
+        <v>0.20659608840315602</v>
       </c>
       <c r="AP6">
-        <v>0.53496340597175529</v>
+        <v>0.20307822556253335</v>
       </c>
       <c r="AQ6">
-        <v>0.52620388964152054</v>
+        <v>0.19959962184987085</v>
       </c>
       <c r="AR6">
-        <v>0.51746038474587397</v>
+        <v>0.19617562171536909</v>
       </c>
       <c r="AS6">
-        <v>0.50872753246410884</v>
+        <v>0.19280311261501404</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.18950428968160471</v>
       </c>
       <c r="AU6">
-        <v>0.49127246753589138</v>
+        <v>0.18623908306193418</v>
       </c>
       <c r="AV6">
-        <v>0.48253961525412609</v>
+        <v>0.18300532456004823</v>
       </c>
       <c r="AW6">
-        <v>0.47379611035847946</v>
+        <v>0.17980302913225191</v>
       </c>
       <c r="AX6">
-        <v>0.46503659402824493</v>
+        <v>0.17664378191657101</v>
       </c>
       <c r="AY6">
-        <v>0.45625566823703795</v>
+        <v>0.17349995498271462</v>
       </c>
       <c r="AZ6">
-        <v>0.44744788236716182</v>
+        <v>0.17034604305488088</v>
       </c>
       <c r="BA6">
-        <v>0.43860771954854771</v>
+        <v>0.16716517522577742</v>
       </c>
       <c r="BB6">
-        <v>0.42972958264880434</v>
+        <v>0.16399834139410241</v>
       </c>
       <c r="BC6">
-        <v>0.42080777983773193</v>
+        <v>0.16086254736384223</v>
       </c>
       <c r="BD6">
-        <v>0.41183650964576757</v>
+        <v>0.15772249456046436</v>
       </c>
       <c r="BE6">
-        <v>0.40280984543114073</v>
+        <v>0.15455356565470998</v>
       </c>
       <c r="BF6">
-        <v>0.39372171916498899</v>
+        <v>0.15135603594209995</v>
       </c>
       <c r="BG6">
-        <v>0.38456590443721844</v>
+        <v>0.1481525584319697</v>
       </c>
       <c r="BH6">
-        <v>0.37533599857840971</v>
+        <v>0.14495774782994034</v>
       </c>
       <c r="BI6">
-        <v>0.36602540378443871</v>
+        <v>0.14178282088956207</v>
       </c>
       <c r="BJ6">
-        <v>0.35662730712059604</v>
+        <v>0.13858871568363818</v>
       </c>
       <c r="BK6">
-        <v>0.34713465927066983</v>
+        <v>0.13538969007333868</v>
       </c>
       <c r="BL6">
-        <v>0.33754015188354686</v>
+        <v>0.13216499682798136</v>
       </c>
       <c r="BM6">
-        <v>0.32783619335516739</v>
+        <v>0.1289051555832057</v>
       </c>
       <c r="BN6">
-        <v>0.31801488286689883</v>
+        <v>0.12562738773567397</v>
       </c>
       <c r="BO6">
-        <v>0.30806798248229206</v>
+        <v>0.1223382682622029</v>
       </c>
       <c r="BP6">
-        <v>0.29798688708242171</v>
+        <v>0.1190116204249123</v>
       </c>
       <c r="BQ6">
-        <v>0.28776259189519759</v>
+        <v>0.11561904363363049</v>
       </c>
       <c r="BR6">
-        <v>0.27738565734573201</v>
+        <v>0.11216830128596883</v>
       </c>
       <c r="BS6">
-        <v>0.26684617092250074</v>
+        <v>0.10870964375957161</v>
       </c>
       <c r="BT6">
-        <v>0.25613370571706934</v>
+        <v>0.10518073692036048</v>
       </c>
       <c r="BU6">
-        <v>0.24523727525278566</v>
+        <v>0.10156821243479136</v>
       </c>
       <c r="BV6">
-        <v>0.23414528416926067</v>
+        <v>9.7910994955686503E-2</v>
       </c>
       <c r="BW6">
-        <v>0.22284547427361553</v>
+        <v>9.4149129104589099E-2</v>
       </c>
       <c r="BX6">
-        <v>0.21132486540518708</v>
+        <v>9.0314909003213498E-2</v>
       </c>
       <c r="BY6">
-        <v>0.19956969048621989</v>
+        <v>8.6383859747019412E-2</v>
       </c>
       <c r="BZ6">
-        <v>0.18756532404533618</v>
+        <v>8.2316861472844602E-2</v>
       </c>
       <c r="CA6">
-        <v>0.1752962034012448</v>
+        <v>7.810470543357681E-2</v>
       </c>
       <c r="CB6">
-        <v>0.16274574157878677</v>
+        <v>7.3730482842757433E-2</v>
       </c>
       <c r="CC6">
-        <v>0.14989623089514517</v>
+        <v>6.9178049691003399E-2</v>
       </c>
       <c r="CD6">
-        <v>0.13672873599731961</v>
+        <v>6.4382964425195879E-2</v>
       </c>
       <c r="CE6">
-        <v>0.12322297494860315</v>
+        <v>5.9385896620590364E-2</v>
       </c>
       <c r="CF6">
-        <v>0.10935718674664133</v>
+        <v>5.4022861272844128E-2</v>
       </c>
       <c r="CG6">
-        <v>9.5107983402496404E-2</v>
+        <v>4.8327047884079578E-2</v>
       </c>
       <c r="CH6">
-        <v>8.0450184411359954E-2</v>
+        <v>4.2156720097299968E-2</v>
       </c>
       <c r="CI6">
-        <v>6.5356631091886802E-2</v>
+        <v>3.5551933081042833E-2</v>
       </c>
       <c r="CJ6">
-        <v>4.9797977851080151E-2</v>
+        <v>2.8305019785394216E-2</v>
       </c>
       <c r="CK6">
-        <v>3.374245693116925E-2</v>
+        <v>2.0367423208405365E-2</v>
       </c>
       <c r="CL6">
-        <v>1.7155612596462845E-2</v>
+        <v>1.1287907639554864E-2</v>
       </c>
       <c r="CM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1.1366779607434414E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.0188217452416547E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.7863398661484157E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.4698491380805357E-2</v>
+      </c>
+      <c r="F7">
+        <v>4.0879034578904919E-2</v>
+      </c>
+      <c r="G7">
+        <v>4.6641934507552864E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.2102518489865038E-2</v>
+      </c>
+      <c r="I7">
+        <v>5.7304735959368698E-2</v>
+      </c>
+      <c r="J7">
+        <v>6.2253978238385119E-2</v>
+      </c>
+      <c r="K7">
+        <v>6.6989335200916683E-2</v>
+      </c>
+      <c r="L7">
+        <v>7.1533696269715466E-2</v>
+      </c>
+      <c r="M7">
+        <v>7.5911365217094531E-2</v>
+      </c>
+      <c r="N7">
+        <v>8.0146679963710263E-2</v>
+      </c>
+      <c r="O7">
+        <v>8.4210185460084658E-2</v>
+      </c>
+      <c r="P7">
+        <v>8.8113400268270747E-2</v>
+      </c>
+      <c r="Q7">
+        <v>9.1876458162494484E-2</v>
+      </c>
+      <c r="R7">
+        <v>9.550685268822029E-2</v>
+      </c>
+      <c r="S7">
+        <v>9.9030283265374927E-2</v>
+      </c>
+      <c r="T7">
+        <v>0.10247544078852737</v>
+      </c>
+      <c r="U7">
+        <v>0.10586038778223679</v>
+      </c>
+      <c r="V7">
+        <v>0.10914626666317863</v>
+      </c>
+      <c r="W7">
+        <v>0.11238804296601827</v>
+      </c>
+      <c r="X7">
+        <v>0.11561329086339624</v>
+      </c>
+      <c r="Y7">
+        <v>0.11882699304564634</v>
+      </c>
+      <c r="Z7">
+        <v>0.1220001970208386</v>
+      </c>
+      <c r="AA7">
+        <v>0.12513924313947764</v>
+      </c>
+      <c r="AB7">
+        <v>0.1282538613124842</v>
+      </c>
+      <c r="AC7">
+        <v>0.13135665022294543</v>
+      </c>
+      <c r="AD7">
+        <v>0.13442516035930185</v>
+      </c>
+      <c r="AE7">
+        <v>0.13744346706924968</v>
+      </c>
+      <c r="AF7">
+        <v>0.14044664314890684</v>
+      </c>
+      <c r="AG7">
+        <v>0.14344259364401743</v>
+      </c>
+      <c r="AH7">
+        <v>0.14642577758968359</v>
+      </c>
+      <c r="AI7">
+        <v>0.14939851372331053</v>
+      </c>
+      <c r="AJ7">
+        <v>0.15234641521447054</v>
+      </c>
+      <c r="AK7">
+        <v>0.15527871763415313</v>
+      </c>
+      <c r="AL7">
+        <v>0.1581902377909071</v>
+      </c>
+      <c r="AM7">
+        <v>0.16110731101870054</v>
+      </c>
+      <c r="AN7">
+        <v>0.16403162203458602</v>
+      </c>
+      <c r="AO7">
+        <v>0.16696531783951912</v>
+      </c>
+      <c r="AP7">
+        <v>0.16992547728771734</v>
+      </c>
+      <c r="AQ7">
+        <v>0.1728984408598232</v>
+      </c>
+      <c r="AR7">
+        <v>0.17592127090187351</v>
+      </c>
+      <c r="AS7">
+        <v>0.17897756338739165</v>
+      </c>
+      <c r="AT7">
+        <v>0.18206111442472653</v>
+      </c>
+      <c r="AU7">
+        <v>0.18515623999982023</v>
+      </c>
+      <c r="AV7">
+        <v>0.18827501534198327</v>
+      </c>
+      <c r="AW7">
+        <v>0.19141737429841654</v>
+      </c>
+      <c r="AX7">
+        <v>0.19457564700071672</v>
+      </c>
+      <c r="AY7">
+        <v>0.1978149854612628</v>
+      </c>
+      <c r="AZ7">
+        <v>0.20110343855302279</v>
+      </c>
+      <c r="BA7">
+        <v>0.20446393312038971</v>
+      </c>
+      <c r="BB7">
+        <v>0.20790939080428061</v>
+      </c>
+      <c r="BC7">
+        <v>0.21144157431458777</v>
+      </c>
+      <c r="BD7">
+        <v>0.21505262672635339</v>
+      </c>
+      <c r="BE7">
+        <v>0.21876908988918861</v>
+      </c>
+      <c r="BF7">
+        <v>0.22257489452999074</v>
+      </c>
+      <c r="BG7">
+        <v>0.22646781923066187</v>
+      </c>
+      <c r="BH7">
+        <v>0.23048040106311946</v>
+      </c>
+      <c r="BI7">
+        <v>0.23463532644996499</v>
+      </c>
+      <c r="BJ7">
+        <v>0.23895287343390301</v>
+      </c>
+      <c r="BK7">
+        <v>0.24341815694085742</v>
+      </c>
+      <c r="BL7">
+        <v>0.24797986110630496</v>
+      </c>
+      <c r="BM7">
+        <v>0.25261152207835297</v>
+      </c>
+      <c r="BN7">
+        <v>0.25735669315791088</v>
+      </c>
+      <c r="BO7">
+        <v>0.26222985855966546</v>
+      </c>
+      <c r="BP7">
+        <v>0.26732805363326895</v>
+      </c>
+      <c r="BQ7">
+        <v>0.27267392050613298</v>
+      </c>
+      <c r="BR7">
+        <v>0.27822335698039979</v>
+      </c>
+      <c r="BS7">
+        <v>0.28398742319503983</v>
+      </c>
+      <c r="BT7">
+        <v>0.29008823609530415</v>
+      </c>
+      <c r="BU7">
+        <v>0.29658125472187619</v>
+      </c>
+      <c r="BV7">
+        <v>0.30338979181163006</v>
+      </c>
+      <c r="BW7">
+        <v>0.3107371310435878</v>
+      </c>
+      <c r="BX7">
+        <v>0.31872795544059085</v>
+      </c>
+      <c r="BY7">
+        <v>0.32750766938620524</v>
+      </c>
+      <c r="BZ7">
+        <v>0.33733922653745674</v>
+      </c>
+      <c r="CA7">
+        <v>0.3481174105226475</v>
+      </c>
+      <c r="CB7">
+        <v>0.36002547099581994</v>
+      </c>
+      <c r="CC7">
+        <v>0.37296505463041313</v>
+      </c>
+      <c r="CD7">
+        <v>0.38685606703851932</v>
+      </c>
+      <c r="CE7">
+        <v>0.40215571643215481</v>
+      </c>
+      <c r="CF7">
+        <v>0.41886792403488443</v>
+      </c>
+      <c r="CG7">
+        <v>0.43723959529801609</v>
+      </c>
+      <c r="CH7">
+        <v>0.45832200631355241</v>
+      </c>
+      <c r="CI7">
+        <v>0.48546397725396306</v>
+      </c>
+      <c r="CJ7">
+        <v>0.5207971493838276</v>
+      </c>
+      <c r="CK7">
+        <v>0.5681006844880967</v>
+      </c>
+      <c r="CL7">
+        <v>0.64160033570630892</v>
+      </c>
+      <c r="CM7">
+        <v>0.76355555555555543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.86566666666666681</v>
+      </c>
+      <c r="B8">
+        <v>0.65120236757521666</v>
+      </c>
+      <c r="C8">
+        <v>0.57811490829797763</v>
+      </c>
+      <c r="D8">
+        <v>0.5316653184444422</v>
+      </c>
+      <c r="E8">
+        <v>0.49621154484829283</v>
+      </c>
+      <c r="F8">
+        <v>0.46724950332327281</v>
+      </c>
+      <c r="G8">
+        <v>0.44376836375483891</v>
+      </c>
+      <c r="H8">
+        <v>0.4243409603514125</v>
+      </c>
+      <c r="I8">
+        <v>0.40774438319451378</v>
+      </c>
+      <c r="J8">
+        <v>0.39305614939715128</v>
+      </c>
+      <c r="K8">
+        <v>0.37991539883323566</v>
+      </c>
+      <c r="L8">
+        <v>0.36800896442156528</v>
+      </c>
+      <c r="M8">
+        <v>0.3571348944519584</v>
+      </c>
+      <c r="N8">
+        <v>0.34715341066678412</v>
+      </c>
+      <c r="O8">
+        <v>0.33774860625282455</v>
+      </c>
+      <c r="P8">
+        <v>0.3288436866288395</v>
+      </c>
+      <c r="Q8">
+        <v>0.32041128724482826</v>
+      </c>
+      <c r="R8">
+        <v>0.31238883919844435</v>
+      </c>
+      <c r="S8">
+        <v>0.30478387248764655</v>
+      </c>
+      <c r="T8">
+        <v>0.29761028983266596</v>
+      </c>
+      <c r="U8">
+        <v>0.29084902504640558</v>
+      </c>
+      <c r="V8">
+        <v>0.28433574573640025</v>
+      </c>
+      <c r="W8">
+        <v>0.27817016762637747</v>
+      </c>
+      <c r="X8">
+        <v>0.2723678448012018</v>
+      </c>
+      <c r="Y8">
+        <v>0.2668897961129823</v>
+      </c>
+      <c r="Z8">
+        <v>0.26163026681471802</v>
+      </c>
+      <c r="AA8">
+        <v>0.25657347094119642</v>
+      </c>
+      <c r="AB8">
+        <v>0.2517123755834822</v>
+      </c>
+      <c r="AC8">
+        <v>0.24704592847353457</v>
+      </c>
+      <c r="AD8">
+        <v>0.24250940879819979</v>
+      </c>
+      <c r="AE8">
+        <v>0.23805906813236014</v>
+      </c>
+      <c r="AF8">
+        <v>0.2337424665577304</v>
+      </c>
+      <c r="AG8">
+        <v>0.22955613554372534</v>
+      </c>
+      <c r="AH8">
+        <v>0.22547592470966044</v>
+      </c>
+      <c r="AI8">
+        <v>0.22149240519999513</v>
+      </c>
+      <c r="AJ8">
+        <v>0.2175732292228528</v>
+      </c>
+      <c r="AK8">
+        <v>0.21372281958559669</v>
+      </c>
+      <c r="AL8">
+        <v>0.20992553589132473</v>
+      </c>
+      <c r="AM8">
+        <v>0.2062079546235136</v>
+      </c>
+      <c r="AN8">
+        <v>0.20256218363234268</v>
+      </c>
+      <c r="AO8">
+        <v>0.19898151737388103</v>
+      </c>
+      <c r="AP8">
+        <v>0.19547690065374135</v>
+      </c>
+      <c r="AQ8">
+        <v>0.19202317221337473</v>
+      </c>
+      <c r="AR8">
+        <v>0.18865246634294486</v>
+      </c>
+      <c r="AS8">
+        <v>0.18533669237601727</v>
+      </c>
+      <c r="AT8">
+        <v>0.18206111442472658</v>
+      </c>
+      <c r="AU8">
+        <v>0.17880330255331095</v>
+      </c>
+      <c r="AV8">
+        <v>0.17556929214919911</v>
+      </c>
+      <c r="AW8">
+        <v>0.17235297796716773</v>
+      </c>
+      <c r="AX8">
+        <v>0.16914202943973475</v>
+      </c>
+      <c r="AY8">
+        <v>0.16598648134188465</v>
+      </c>
+      <c r="AZ8">
+        <v>0.16285035356085115</v>
+      </c>
+      <c r="BA8">
+        <v>0.15974473208599119</v>
+      </c>
+      <c r="BB8">
+        <v>0.15667096349497034</v>
+      </c>
+      <c r="BC8">
+        <v>0.15362129592795404</v>
+      </c>
+      <c r="BD8">
+        <v>0.15058147034559158</v>
+      </c>
+      <c r="BE8">
+        <v>0.14756161435212417</v>
+      </c>
+      <c r="BF8">
+        <v>0.14454182656291112</v>
+      </c>
+      <c r="BG8">
+        <v>0.14151279943098247</v>
+      </c>
+      <c r="BH8">
+        <v>0.13848659645650641</v>
+      </c>
+      <c r="BI8">
+        <v>0.13546676888728298</v>
+      </c>
+      <c r="BJ8">
+        <v>0.13245374061506041</v>
+      </c>
+      <c r="BK8">
+        <v>0.12942772988310802</v>
+      </c>
+      <c r="BL8">
+        <v>0.12635205019575602</v>
+      </c>
+      <c r="BM8">
+        <v>0.12320687156483739</v>
+      </c>
+      <c r="BN8">
+        <v>0.12000739689698005</v>
+      </c>
+      <c r="BO8">
+        <v>0.11675225517516324</v>
+      </c>
+      <c r="BP8">
+        <v>0.11347402643365326</v>
+      </c>
+      <c r="BQ8">
+        <v>0.11016741498576837</v>
+      </c>
+      <c r="BR8">
+        <v>0.1067999404515953</v>
+      </c>
+      <c r="BS8">
+        <v>0.10336296894895386</v>
+      </c>
+      <c r="BT8">
+        <v>9.9885389978105046E-2</v>
+      </c>
+      <c r="BU8">
+        <v>9.6365091192606334E-2</v>
+      </c>
+      <c r="BV8">
+        <v>9.2755567798170749E-2</v>
+      </c>
+      <c r="BW8">
+        <v>8.9102438510678825E-2</v>
+      </c>
+      <c r="BX8">
+        <v>8.5402898265529187E-2</v>
+      </c>
+      <c r="BY8">
+        <v>8.165683312388726E-2</v>
+      </c>
+      <c r="BZ8">
+        <v>7.7880897026399151E-2</v>
+      </c>
+      <c r="CA8">
+        <v>7.3994639838165593E-2</v>
+      </c>
+      <c r="CB8">
+        <v>6.9981862349620227E-2</v>
+      </c>
+      <c r="CC8">
+        <v>6.5763801992748463E-2</v>
+      </c>
+      <c r="CD8">
+        <v>6.1271981664047216E-2</v>
+      </c>
+      <c r="CE8">
+        <v>5.6519300067713413E-2</v>
+      </c>
+      <c r="CF8">
+        <v>5.1430514128934485E-2</v>
+      </c>
+      <c r="CG8">
+        <v>4.5955733291671852E-2</v>
+      </c>
+      <c r="CH8">
+        <v>4.009797979689278E-2</v>
+      </c>
+      <c r="CI8">
+        <v>3.3946948242786587E-2</v>
+      </c>
+      <c r="CJ8">
+        <v>2.7293822056144751E-2</v>
+      </c>
+      <c r="CK8">
+        <v>1.9838513051112994E-2</v>
+      </c>
+      <c r="CL8">
+        <v>1.1199175517719744E-2</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1.1342862317582424E-2</v>
+      </c>
+      <c r="C9">
+        <v>2.0248930836579162E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.808176974434614E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.5088329954251395E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.1434891034305768E-2</v>
+      </c>
+      <c r="G9">
+        <v>4.7219437537913522E-2</v>
+      </c>
+      <c r="H9">
+        <v>5.261763618425979E-2</v>
+      </c>
+      <c r="I9">
+        <v>5.7707849982303931E-2</v>
+      </c>
+      <c r="J9">
+        <v>6.2632891809417501E-2</v>
+      </c>
+      <c r="K9">
+        <v>6.7396339387517434E-2</v>
+      </c>
+      <c r="L9">
+        <v>7.1979781601713283E-2</v>
+      </c>
+      <c r="M9">
+        <v>7.6405300579817717E-2</v>
+      </c>
+      <c r="N9">
+        <v>8.0670465600109431E-2</v>
+      </c>
+      <c r="O9">
+        <v>8.4811651497326015E-2</v>
+      </c>
+      <c r="P9">
+        <v>8.8831369713018443E-2</v>
+      </c>
+      <c r="Q9">
+        <v>9.2746899293555785E-2</v>
+      </c>
+      <c r="R9">
+        <v>9.6589471636454843E-2</v>
+      </c>
+      <c r="S9">
+        <v>0.10037368206584668</v>
+      </c>
+      <c r="T9">
+        <v>0.10405963502250694</v>
+      </c>
+      <c r="U9">
+        <v>0.10766779528277161</v>
+      </c>
+      <c r="V9">
+        <v>0.11122921317176485</v>
+      </c>
+      <c r="W9">
+        <v>0.11471643819456361</v>
+      </c>
+      <c r="X9">
+        <v>0.11815052418706651</v>
+      </c>
+      <c r="Y9">
+        <v>0.12153049069346043</v>
+      </c>
+      <c r="Z9">
+        <v>0.12487944280645946</v>
+      </c>
+      <c r="AA9">
+        <v>0.12815812826386871</v>
+      </c>
+      <c r="AB9">
+        <v>0.13139506117865615</v>
+      </c>
+      <c r="AC9">
+        <v>0.13460446353251404</v>
+      </c>
+      <c r="AD9">
+        <v>0.13778101822719116</v>
+      </c>
+      <c r="AE9">
+        <v>0.14090899614066107</v>
+      </c>
+      <c r="AF9">
+        <v>0.1439982913504706</v>
+      </c>
+      <c r="AG9">
+        <v>0.14706384314265819</v>
+      </c>
+      <c r="AH9">
+        <v>0.15011826568363218</v>
+      </c>
+      <c r="AI9">
+        <v>0.15314109852580296</v>
+      </c>
+      <c r="AJ9">
+        <v>0.15614218445057459</v>
+      </c>
+      <c r="AK9">
+        <v>0.15912423694239028</v>
+      </c>
+      <c r="AL9">
+        <v>0.16209521986839692</v>
+      </c>
+      <c r="AM9">
+        <v>0.16508501767563835</v>
+      </c>
+      <c r="AN9">
+        <v>0.16808070292294008</v>
+      </c>
+      <c r="AO9">
+        <v>0.17110853067332343</v>
+      </c>
+      <c r="AP9">
+        <v>0.17417473944295342</v>
+      </c>
+      <c r="AQ9">
+        <v>0.17728008065288228</v>
+      </c>
+      <c r="AR9">
+        <v>0.18043933650586999</v>
+      </c>
+      <c r="AS9">
+        <v>0.18364489681487292</v>
+      </c>
+      <c r="AT9">
+        <v>0.18689628297044972</v>
+      </c>
+      <c r="AU9">
+        <v>0.19018183901235219</v>
+      </c>
+      <c r="AV9">
+        <v>0.1934917864405839</v>
+      </c>
+      <c r="AW9">
+        <v>0.19683926906905655</v>
+      </c>
+      <c r="AX9">
+        <v>0.20022449734098224</v>
+      </c>
+      <c r="AY9">
+        <v>0.2036348354860899</v>
+      </c>
+      <c r="AZ9">
+        <v>0.20712543234961309</v>
+      </c>
+      <c r="BA9">
+        <v>0.21066004326022214</v>
+      </c>
+      <c r="BB9">
+        <v>0.21424552165995345</v>
+      </c>
+      <c r="BC9">
+        <v>0.21790109195558441</v>
+      </c>
+      <c r="BD9">
+        <v>0.22162769089097784</v>
+      </c>
+      <c r="BE9">
+        <v>0.22539626211841277</v>
+      </c>
+      <c r="BF9">
+        <v>0.22921709766864251</v>
+      </c>
+      <c r="BG9">
+        <v>0.23314180309423108</v>
+      </c>
+      <c r="BH9">
+        <v>0.23716518791271221</v>
+      </c>
+      <c r="BI9">
+        <v>0.24126619917586431</v>
+      </c>
+      <c r="BJ9">
+        <v>0.24548249005431341</v>
+      </c>
+      <c r="BK9">
+        <v>0.24981631352060296</v>
+      </c>
+      <c r="BL9">
+        <v>0.25424824245272942</v>
+      </c>
+      <c r="BM9">
+        <v>0.25885039098596052</v>
+      </c>
+      <c r="BN9">
+        <v>0.26363484386189567</v>
+      </c>
+      <c r="BO9">
+        <v>0.26860468032996809</v>
+      </c>
+      <c r="BP9">
+        <v>0.27389121290660162</v>
+      </c>
+      <c r="BQ9">
+        <v>0.27936888364151274</v>
+      </c>
+      <c r="BR9">
+        <v>0.28517948892937683</v>
+      </c>
+      <c r="BS9">
+        <v>0.29124236431162276</v>
+      </c>
+      <c r="BT9">
+        <v>0.29757178160203968</v>
+      </c>
+      <c r="BU9">
+        <v>0.30427781501493123</v>
+      </c>
+      <c r="BV9">
+        <v>0.31140105010690172</v>
+      </c>
+      <c r="BW9">
+        <v>0.31890507420214698</v>
+      </c>
+      <c r="BX9">
+        <v>0.32683299599651078</v>
+      </c>
+      <c r="BY9">
+        <v>0.33529544249302928</v>
+      </c>
+      <c r="BZ9">
+        <v>0.3443207182473802</v>
+      </c>
+      <c r="CA9">
+        <v>0.35411526495271184</v>
+      </c>
+      <c r="CB9">
+        <v>0.36469565760735206</v>
+      </c>
+      <c r="CC9">
+        <v>0.37612056361495094</v>
+      </c>
+      <c r="CD9">
+        <v>0.38908102993631333</v>
+      </c>
+      <c r="CE9">
+        <v>0.40350878026654563</v>
+      </c>
+      <c r="CF9">
+        <v>0.41993545120674441</v>
+      </c>
+      <c r="CG9">
+        <v>0.43866326507443432</v>
+      </c>
+      <c r="CH9">
+        <v>0.46134072843760793</v>
+      </c>
+      <c r="CI9">
+        <v>0.48815093882598876</v>
+      </c>
+      <c r="CJ9">
+        <v>0.52090898427398846</v>
+      </c>
+      <c r="CK9">
+        <v>0.56426448310217014</v>
+      </c>
+      <c r="CL9">
+        <v>0.63566131363712075</v>
+      </c>
+      <c r="CM9">
+        <v>0.772343434343434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.86053333333333359</v>
+      </c>
+      <c r="B10">
+        <v>0.6498321469572842</v>
+      </c>
+      <c r="C10">
+        <v>0.57985351214452119</v>
+      </c>
+      <c r="D10">
+        <v>0.53583208692517892</v>
+      </c>
+      <c r="E10">
+        <v>0.50178649618113735</v>
+      </c>
+      <c r="F10">
+        <v>0.47360297168133192</v>
+      </c>
+      <c r="G10">
+        <v>0.449262938059108</v>
+      </c>
+      <c r="H10">
+        <v>0.4285362573057433</v>
+      </c>
+      <c r="I10">
+        <v>0.41061268850797539</v>
+      </c>
+      <c r="J10">
+        <v>0.39544851553018795</v>
+      </c>
+      <c r="K10">
+        <v>0.38222363427721251</v>
+      </c>
+      <c r="L10">
+        <v>0.37030387450775998</v>
+      </c>
+      <c r="M10">
+        <v>0.35945867763156214</v>
+      </c>
+      <c r="N10">
+        <v>0.34942217551414395</v>
+      </c>
+      <c r="O10">
+        <v>0.34016095476716207</v>
+      </c>
+      <c r="P10">
+        <v>0.33152318507492029</v>
+      </c>
+      <c r="Q10">
+        <v>0.32344687621780466</v>
+      </c>
+      <c r="R10">
+        <v>0.3159299262200978</v>
+      </c>
+      <c r="S10">
+        <v>0.30891842885971948</v>
+      </c>
+      <c r="T10">
+        <v>0.30221112395934052</v>
+      </c>
+      <c r="U10">
+        <v>0.295814836341878</v>
+      </c>
+      <c r="V10">
+        <v>0.28976200690826032</v>
+      </c>
+      <c r="W10">
+        <v>0.28393314804610753</v>
+      </c>
+      <c r="X10">
+        <v>0.27834519192941698</v>
+      </c>
+      <c r="Y10">
+        <v>0.27296195124813627</v>
+      </c>
+      <c r="Z10">
+        <v>0.26780482932782979</v>
+      </c>
+      <c r="AA10">
+        <v>0.26276310270902214</v>
+      </c>
+      <c r="AB10">
+        <v>0.25787732744072239</v>
+      </c>
+      <c r="AC10">
+        <v>0.25315417691934433</v>
+      </c>
+      <c r="AD10">
+        <v>0.24856353665177519</v>
+      </c>
+      <c r="AE10">
+        <v>0.24406154055915177</v>
+      </c>
+      <c r="AF10">
+        <v>0.23965340178812039</v>
+      </c>
+      <c r="AG10">
+        <v>0.23535134615467285</v>
+      </c>
+      <c r="AH10">
+        <v>0.23116185775483422</v>
+      </c>
+      <c r="AI10">
+        <v>0.22704101534951943</v>
+      </c>
+      <c r="AJ10">
+        <v>0.22299414949144769</v>
+      </c>
+      <c r="AK10">
+        <v>0.21901572283627718</v>
+      </c>
+      <c r="AL10">
+        <v>0.21510762213577783</v>
+      </c>
+      <c r="AM10">
+        <v>0.21129918697437983</v>
+      </c>
+      <c r="AN10">
+        <v>0.20756238210795161</v>
+      </c>
+      <c r="AO10">
+        <v>0.20391920615344974</v>
+      </c>
+      <c r="AP10">
+        <v>0.20036511759112463</v>
+      </c>
+      <c r="AQ10">
+        <v>0.1968894762030198</v>
+      </c>
+      <c r="AR10">
+        <v>0.19349749852650952</v>
+      </c>
+      <c r="AS10">
+        <v>0.19016985762474206</v>
+      </c>
+      <c r="AT10">
+        <v>0.1868962829704498</v>
+      </c>
+      <c r="AU10">
+        <v>0.18365646710639472</v>
+      </c>
+      <c r="AV10">
+        <v>0.18043400989957115</v>
+      </c>
+      <c r="AW10">
+        <v>0.1772348739464093</v>
+      </c>
+      <c r="AX10">
+        <v>0.17405250012443624</v>
+      </c>
+      <c r="AY10">
+        <v>0.17086991535122403</v>
+      </c>
+      <c r="AZ10">
+        <v>0.16772686798532935</v>
+      </c>
+      <c r="BA10">
+        <v>0.16458566387849483</v>
+      </c>
+      <c r="BB10">
+        <v>0.16144558056324385</v>
+      </c>
+      <c r="BC10">
+        <v>0.15831441020453893</v>
+      </c>
+      <c r="BD10">
+        <v>0.15518537983787409</v>
+      </c>
+      <c r="BE10">
+        <v>0.15203169846331746</v>
+      </c>
+      <c r="BF10">
+        <v>0.14885532371671198</v>
+      </c>
+      <c r="BG10">
+        <v>0.1456831674024642</v>
+      </c>
+      <c r="BH10">
+        <v>0.14250322162102003</v>
+      </c>
+      <c r="BI10">
+        <v>0.13929510504054313</v>
+      </c>
+      <c r="BJ10">
+        <v>0.13607316621027027</v>
+      </c>
+      <c r="BK10">
+        <v>0.13282969008180565</v>
+      </c>
+      <c r="BL10">
+        <v>0.12954595001889552</v>
+      </c>
+      <c r="BM10">
+        <v>0.12624977124686784</v>
+      </c>
+      <c r="BN10">
+        <v>0.12293494664929933</v>
+      </c>
+      <c r="BO10">
+        <v>0.11959050869103129</v>
+      </c>
+      <c r="BP10">
+        <v>0.11625992225995546</v>
+      </c>
+      <c r="BQ10">
+        <v>0.11287235567346147</v>
+      </c>
+      <c r="BR10">
+        <v>0.10947014932976834</v>
+      </c>
+      <c r="BS10">
+        <v>0.10600355156674404</v>
+      </c>
+      <c r="BT10">
+        <v>0.10246218134138387</v>
+      </c>
+      <c r="BU10">
+        <v>9.8865855225063942E-2</v>
+      </c>
+      <c r="BV10">
+        <v>9.5204855256125528E-2</v>
+      </c>
+      <c r="BW10">
+        <v>9.1444558522535857E-2</v>
+      </c>
+      <c r="BX10">
+        <v>8.7574637337109393E-2</v>
+      </c>
+      <c r="BY10">
+        <v>8.3598543039207621E-2</v>
+      </c>
+      <c r="BZ10">
+        <v>7.9492701388827261E-2</v>
+      </c>
+      <c r="CA10">
+        <v>7.5269523153217319E-2</v>
+      </c>
+      <c r="CB10">
+        <v>7.0889654666900698E-2</v>
+      </c>
+      <c r="CC10">
+        <v>6.6320203364590477E-2</v>
+      </c>
+      <c r="CD10">
+        <v>6.1624381167357127E-2</v>
+      </c>
+      <c r="CE10">
+        <v>5.6709460788404324E-2</v>
+      </c>
+      <c r="CF10">
+        <v>5.1561589983983254E-2</v>
+      </c>
+      <c r="CG10">
+        <v>4.6105367014793168E-2</v>
+      </c>
+      <c r="CH10">
+        <v>4.036208376108253E-2</v>
+      </c>
+      <c r="CI10">
+        <v>3.4134838899333074E-2</v>
+      </c>
+      <c r="CJ10">
+        <v>2.7299683074384434E-2</v>
+      </c>
+      <c r="CK10">
+        <v>1.9704549946791133E-2</v>
+      </c>
+      <c r="CL10">
+        <v>1.1095509501891945E-2</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1.1595622689457762E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.0637273474545314E-2</v>
+      </c>
+      <c r="D11">
+        <v>2.8472348202227517E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.5433424379425676E-2</v>
+      </c>
+      <c r="F11">
+        <v>4.1812725018987799E-2</v>
+      </c>
+      <c r="G11">
+        <v>4.7736477437111527E-2</v>
+      </c>
+      <c r="H11">
+        <v>5.3287821260468916E-2</v>
+      </c>
+      <c r="I11">
+        <v>5.8587146159295639E-2</v>
+      </c>
+      <c r="J11">
+        <v>6.3656586000076384E-2</v>
+      </c>
+      <c r="K11">
+        <v>6.8462289073058444E-2</v>
+      </c>
+      <c r="L11">
+        <v>7.3035977485810005E-2</v>
+      </c>
+      <c r="M11">
+        <v>7.7404792166684097E-2</v>
+      </c>
+      <c r="N11">
+        <v>8.1621243161612539E-2</v>
+      </c>
+      <c r="O11">
+        <v>8.5678639855963579E-2</v>
+      </c>
+      <c r="P11">
+        <v>8.9599841325794807E-2</v>
+      </c>
+      <c r="Q11">
+        <v>9.3421676995041614E-2</v>
+      </c>
+      <c r="R11">
+        <v>9.7168605759577323E-2</v>
+      </c>
+      <c r="S11">
+        <v>0.10082208040788546</v>
+      </c>
+      <c r="T11">
+        <v>0.10441290612969435</v>
+      </c>
+      <c r="U11">
+        <v>0.10796329459249715</v>
+      </c>
+      <c r="V11">
+        <v>0.11147434682543528</v>
+      </c>
+      <c r="W11">
+        <v>0.11490575351358336</v>
+      </c>
+      <c r="X11">
+        <v>0.11831213261925232</v>
+      </c>
+      <c r="Y11">
+        <v>0.12164666309086143</v>
+      </c>
+      <c r="Z11">
+        <v>0.12495757696930287</v>
+      </c>
+      <c r="AA11">
+        <v>0.12823236931012708</v>
+      </c>
+      <c r="AB11">
+        <v>0.13146469921630455</v>
+      </c>
+      <c r="AC11">
+        <v>0.13469518255804416</v>
+      </c>
+      <c r="AD11">
+        <v>0.13788574301461279</v>
+      </c>
+      <c r="AE11">
+        <v>0.1410372437376228</v>
+      </c>
+      <c r="AF11">
+        <v>0.14416365842024681</v>
+      </c>
+      <c r="AG11">
+        <v>0.1472711682540519</v>
+      </c>
+      <c r="AH11">
+        <v>0.15035318080767934</v>
+      </c>
+      <c r="AI11">
+        <v>0.15340050330958158</v>
+      </c>
+      <c r="AJ11">
+        <v>0.15642677412559761</v>
+      </c>
+      <c r="AK11">
+        <v>0.15943563965183249</v>
+      </c>
+      <c r="AL11">
+        <v>0.16242083683460865</v>
+      </c>
+      <c r="AM11">
+        <v>0.16540010281375445</v>
+      </c>
+      <c r="AN11">
+        <v>0.16838329172778732</v>
+      </c>
+      <c r="AO11">
+        <v>0.17142534667081544</v>
+      </c>
+      <c r="AP11">
+        <v>0.1744714265028382</v>
+      </c>
+      <c r="AQ11">
+        <v>0.17755136657812856</v>
+      </c>
+      <c r="AR11">
+        <v>0.18069267524658311</v>
+      </c>
+      <c r="AS11">
+        <v>0.18387352741140822</v>
+      </c>
+      <c r="AT11">
+        <v>0.18708011148677436</v>
+      </c>
+      <c r="AU11">
+        <v>0.19032370639987314</v>
+      </c>
+      <c r="AV11">
+        <v>0.19357072750017074</v>
+      </c>
+      <c r="AW11">
+        <v>0.1968576315440993</v>
+      </c>
+      <c r="AX11">
+        <v>0.20019661328667118</v>
+      </c>
+      <c r="AY11">
+        <v>0.20356574352710038</v>
+      </c>
+      <c r="AZ11">
+        <v>0.20702487142404968</v>
+      </c>
+      <c r="BA11">
+        <v>0.21053970667498198</v>
+      </c>
+      <c r="BB11">
+        <v>0.21411247985477863</v>
+      </c>
+      <c r="BC11">
+        <v>0.21776002304423689</v>
+      </c>
+      <c r="BD11">
+        <v>0.22147951485950823</v>
+      </c>
+      <c r="BE11">
+        <v>0.22527868507405319</v>
+      </c>
+      <c r="BF11">
+        <v>0.229190135380865</v>
+      </c>
+      <c r="BG11">
+        <v>0.23326801277556755</v>
+      </c>
+      <c r="BH11">
+        <v>0.23748710966985087</v>
+      </c>
+      <c r="BI11">
+        <v>0.24185964706002727</v>
+      </c>
+      <c r="BJ11">
+        <v>0.24627287337185963</v>
+      </c>
+      <c r="BK11">
+        <v>0.25081028416431494</v>
+      </c>
+      <c r="BL11">
+        <v>0.25547526260922238</v>
+      </c>
+      <c r="BM11">
+        <v>0.26030097491626547</v>
+      </c>
+      <c r="BN11">
+        <v>0.26530173287227304</v>
+      </c>
+      <c r="BO11">
+        <v>0.27050788505740975</v>
+      </c>
+      <c r="BP11">
+        <v>0.27585874852569409</v>
+      </c>
+      <c r="BQ11">
+        <v>0.28145035441416116</v>
+      </c>
+      <c r="BR11">
+        <v>0.28735436866578734</v>
+      </c>
+      <c r="BS11">
+        <v>0.29362016420494108</v>
+      </c>
+      <c r="BT11">
+        <v>0.30018254643206188</v>
+      </c>
+      <c r="BU11">
+        <v>0.30705160497291106</v>
+      </c>
+      <c r="BV11">
+        <v>0.31424490791925475</v>
+      </c>
+      <c r="BW11">
+        <v>0.32170267293435872</v>
+      </c>
+      <c r="BX11">
+        <v>0.32963530279518172</v>
+      </c>
+      <c r="BY11">
+        <v>0.33805024701160286</v>
+      </c>
+      <c r="BZ11">
+        <v>0.34713787546989983</v>
+      </c>
+      <c r="CA11">
+        <v>0.35687841332673592</v>
+      </c>
+      <c r="CB11">
+        <v>0.36734496278515782</v>
+      </c>
+      <c r="CC11">
+        <v>0.37892497920630441</v>
+      </c>
+      <c r="CD11">
+        <v>0.39185323277163542</v>
+      </c>
+      <c r="CE11">
+        <v>0.40612057464431706</v>
+      </c>
+      <c r="CF11">
+        <v>0.42184971392434023</v>
+      </c>
+      <c r="CG11">
+        <v>0.43948155527951355</v>
+      </c>
+      <c r="CH11">
+        <v>0.46122738745495268</v>
+      </c>
+      <c r="CI11">
+        <v>0.48805500189291146</v>
+      </c>
+      <c r="CJ11">
+        <v>0.52357247689494735</v>
+      </c>
+      <c r="CK11">
+        <v>0.56980969320254493</v>
+      </c>
+      <c r="CL11">
+        <v>0.63861568245751898</v>
+      </c>
+      <c r="CM11">
+        <v>0.76311111111111074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.86080000000000045</v>
+      </c>
+      <c r="B12">
+        <v>0.66431277896379826</v>
+      </c>
+      <c r="C12">
+        <v>0.5909741902858755</v>
+      </c>
+      <c r="D12">
+        <v>0.54328476786729585</v>
+      </c>
+      <c r="E12">
+        <v>0.50672157638260695</v>
+      </c>
+      <c r="F12">
+        <v>0.47792163388800846</v>
+      </c>
+      <c r="G12">
+        <v>0.45418224409745206</v>
+      </c>
+      <c r="H12">
+        <v>0.433994476737249</v>
+      </c>
+      <c r="I12">
+        <v>0.41686920590275045</v>
+      </c>
+      <c r="J12">
+        <v>0.40191186627702424</v>
+      </c>
+      <c r="K12">
+        <v>0.3882689353494484</v>
+      </c>
+      <c r="L12">
+        <v>0.37573753128494097</v>
+      </c>
+      <c r="M12">
+        <v>0.36416091584530413</v>
+      </c>
+      <c r="N12">
+        <v>0.35354044558360542</v>
+      </c>
+      <c r="O12">
+        <v>0.34363825514558322</v>
+      </c>
+      <c r="P12">
+        <v>0.33439116017797571</v>
+      </c>
+      <c r="Q12">
+        <v>0.32580010572034829</v>
+      </c>
+      <c r="R12">
+        <v>0.31782418858316658</v>
+      </c>
+      <c r="S12">
+        <v>0.31029845705510867</v>
+      </c>
+      <c r="T12">
+        <v>0.30323709775160318</v>
+      </c>
+      <c r="U12">
+        <v>0.29662671402281332</v>
+      </c>
+      <c r="V12">
+        <v>0.29040060190882566</v>
+      </c>
+      <c r="W12">
+        <v>0.28440171990336366</v>
+      </c>
+      <c r="X12">
+        <v>0.27872591753671899</v>
+      </c>
+      <c r="Y12">
+        <v>0.27322287872481144</v>
+      </c>
+      <c r="Z12">
+        <v>0.26797238858077588</v>
+      </c>
+      <c r="AA12">
+        <v>0.26291531941136864</v>
+      </c>
+      <c r="AB12">
+        <v>0.25801399978499401</v>
+      </c>
+      <c r="AC12">
+        <v>0.25332479459156937</v>
+      </c>
+      <c r="AD12">
+        <v>0.24875246516944435</v>
+      </c>
+      <c r="AE12">
+        <v>0.24428367191303821</v>
+      </c>
+      <c r="AF12">
+        <v>0.23992861880940533</v>
+      </c>
+      <c r="AG12">
+        <v>0.2356831356891734</v>
+      </c>
+      <c r="AH12">
+        <v>0.23152359532382455</v>
+      </c>
+      <c r="AI12">
+        <v>0.22742559875699503</v>
+      </c>
+      <c r="AJ12">
+        <v>0.22340058566857124</v>
+      </c>
+      <c r="AK12">
+        <v>0.21944433189553919</v>
+      </c>
+      <c r="AL12">
+        <v>0.21553973044462094</v>
+      </c>
+      <c r="AM12">
+        <v>0.21170247756033991</v>
+      </c>
+      <c r="AN12">
+        <v>0.20793604816265662</v>
+      </c>
+      <c r="AO12">
+        <v>0.20429677275665231</v>
+      </c>
+      <c r="AP12">
+        <v>0.20070641701164749</v>
+      </c>
+      <c r="AQ12">
+        <v>0.1971907697466953</v>
+      </c>
+      <c r="AR12">
+        <v>0.1937691710650872</v>
+      </c>
+      <c r="AS12">
+        <v>0.19040661153811439</v>
+      </c>
+      <c r="AT12">
+        <v>0.18708011148677439</v>
+      </c>
+      <c r="AU12">
+        <v>0.18379346685003475</v>
+      </c>
+      <c r="AV12">
+        <v>0.18050762362855166</v>
+      </c>
+      <c r="AW12">
+        <v>0.17725140759320115</v>
+      </c>
+      <c r="AX12">
+        <v>0.1740282608858271</v>
+      </c>
+      <c r="AY12">
+        <v>0.17081194031391866</v>
+      </c>
+      <c r="AZ12">
+        <v>0.16764543535344478</v>
+      </c>
+      <c r="BA12">
+        <v>0.1644916466341039</v>
+      </c>
+      <c r="BB12">
+        <v>0.16134532637212143</v>
+      </c>
+      <c r="BC12">
+        <v>0.15821191764106554</v>
+      </c>
+      <c r="BD12">
+        <v>0.15508162586365709</v>
+      </c>
+      <c r="BE12">
+        <v>0.15195239174551176</v>
+      </c>
+      <c r="BF12">
+        <v>0.14883781420229916</v>
+      </c>
+      <c r="BG12">
+        <v>0.14576203196424559</v>
+      </c>
+      <c r="BH12">
+        <v>0.14269665172729268</v>
+      </c>
+      <c r="BI12">
+        <v>0.13963773233621457</v>
+      </c>
+      <c r="BJ12">
+        <v>0.13651128283730346</v>
+      </c>
+      <c r="BK12">
+        <v>0.13335819364786192</v>
+      </c>
+      <c r="BL12">
+        <v>0.13017114801567137</v>
+      </c>
+      <c r="BM12">
+        <v>0.12695726830212758</v>
+      </c>
+      <c r="BN12">
+        <v>0.12371222976013259</v>
+      </c>
+      <c r="BO12">
+        <v>0.12043787002970312</v>
+      </c>
+      <c r="BP12">
+        <v>0.11709509158025559</v>
+      </c>
+      <c r="BQ12">
+        <v>0.11371332445392079</v>
+      </c>
+      <c r="BR12">
+        <v>0.11030500744110357</v>
+      </c>
+      <c r="BS12">
+        <v>0.10686899995095325</v>
+      </c>
+      <c r="BT12">
+        <v>0.10336113976416604</v>
+      </c>
+      <c r="BU12">
+        <v>9.9767114215624703E-2</v>
+      </c>
+      <c r="BV12">
+        <v>9.6074309843067737E-2</v>
+      </c>
+      <c r="BW12">
+        <v>9.2246757050202313E-2</v>
+      </c>
+      <c r="BX12">
+        <v>8.8325513180757584E-2</v>
+      </c>
+      <c r="BY12">
+        <v>8.428539294804685E-2</v>
+      </c>
+      <c r="BZ12">
+        <v>8.0143093380906708E-2</v>
+      </c>
+      <c r="CA12">
+        <v>7.5856848470983992E-2</v>
+      </c>
+      <c r="CB12">
+        <v>7.1404627426362763E-2</v>
+      </c>
+      <c r="CC12">
+        <v>6.6814697498465608E-2</v>
+      </c>
+      <c r="CD12">
+        <v>6.2063454961895734E-2</v>
+      </c>
+      <c r="CE12">
+        <v>5.7076524550327308E-2</v>
+      </c>
+      <c r="CF12">
+        <v>5.1796631891216013E-2</v>
+      </c>
+      <c r="CG12">
+        <v>4.6191372781023379E-2</v>
+      </c>
+      <c r="CH12">
+        <v>4.0352167709987313E-2</v>
+      </c>
+      <c r="CI12">
+        <v>3.4128130335455323E-2</v>
+      </c>
+      <c r="CJ12">
+        <v>2.7439270807785653E-2</v>
+      </c>
+      <c r="CK12">
+        <v>1.9898192950489633E-2</v>
+      </c>
+      <c r="CL12">
+        <v>1.1147078201473893E-2</v>
+      </c>
+      <c r="CM12">
         <v>0</v>
       </c>
     </row>

--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER round 1/totalEER.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER round 1/totalEER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\EER round 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED9E36-5295-4E44-98F1-2048C18C0AFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE005FE7-2A65-4571-99FE-0F5AABF32057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="2" xr2:uid="{E869420E-0FDF-44FA-8FA3-45EAC0230B05}"/>
   </bookViews>
@@ -395,10 +395,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.18909089850313116</v>
+        <v>0.19038650224361406</v>
       </c>
       <c r="B1">
-        <v>0.1883158691412665</v>
+        <v>0.188003943144016</v>
       </c>
       <c r="C1">
         <v>0.18950428968160471</v>
@@ -433,546 +433,546 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.133595207567264E-2</v>
+        <v>1.13898077751936E-2</v>
       </c>
       <c r="C1">
-        <v>2.0245477976133731E-2</v>
+        <v>2.0413998683579796E-2</v>
       </c>
       <c r="D1">
-        <v>2.8055289508600319E-2</v>
+        <v>2.8361658301381008E-2</v>
       </c>
       <c r="E1">
-        <v>3.5052586738858929E-2</v>
+        <v>3.5513710083790451E-2</v>
       </c>
       <c r="F1">
-        <v>4.1476097110426408E-2</v>
+        <v>4.2085880322436597E-2</v>
       </c>
       <c r="G1">
-        <v>4.7442073441311038E-2</v>
+        <v>4.8120733578900655E-2</v>
       </c>
       <c r="H1">
-        <v>5.3020320329168404E-2</v>
+        <v>5.3786033770279379E-2</v>
       </c>
       <c r="I1">
-        <v>5.8306681071428772E-2</v>
+        <v>5.9165097986866561E-2</v>
       </c>
       <c r="J1">
-        <v>6.3366814901072599E-2</v>
+        <v>6.4289411757668807E-2</v>
       </c>
       <c r="K1">
-        <v>6.8163450190302136E-2</v>
+        <v>6.9116415905298462E-2</v>
       </c>
       <c r="L1">
-        <v>7.2766572855526457E-2</v>
+        <v>7.3752260659498137E-2</v>
       </c>
       <c r="M1">
-        <v>7.7171256715126466E-2</v>
+        <v>7.8190325321841628E-2</v>
       </c>
       <c r="N1">
-        <v>8.1402602823653858E-2</v>
+        <v>8.2464828217146818E-2</v>
       </c>
       <c r="O1">
-        <v>8.5482678879294727E-2</v>
+        <v>8.6593621011837194E-2</v>
       </c>
       <c r="P1">
-        <v>8.9469690077423197E-2</v>
+        <v>9.0632365902306194E-2</v>
       </c>
       <c r="Q1">
-        <v>9.3346423802018227E-2</v>
+        <v>9.4563535143417837E-2</v>
       </c>
       <c r="R1">
-        <v>9.7103756884824768E-2</v>
+        <v>9.8375722815907521E-2</v>
       </c>
       <c r="S1">
-        <v>0.10079211917286052</v>
+        <v>0.10208483459928754</v>
       </c>
       <c r="T1">
-        <v>0.1044055832181213</v>
+        <v>0.10573900168081735</v>
       </c>
       <c r="U1">
-        <v>0.10797718221069025</v>
+        <v>0.1093543784767993</v>
       </c>
       <c r="V1">
-        <v>0.11149708246507969</v>
+        <v>0.11291980444927596</v>
       </c>
       <c r="W1">
-        <v>0.11494839610109345</v>
+        <v>0.11643345158570126</v>
       </c>
       <c r="X1">
-        <v>0.11834485678311464</v>
+        <v>0.11991205939632948</v>
       </c>
       <c r="Y1">
-        <v>0.12169584695859641</v>
+        <v>0.1233486482727518</v>
       </c>
       <c r="Z1">
-        <v>0.12499319047160765</v>
+        <v>0.12671748096668251</v>
       </c>
       <c r="AA1">
-        <v>0.12825434348893511</v>
+        <v>0.13003531077008038</v>
       </c>
       <c r="AB1">
-        <v>0.13147708087997079</v>
+        <v>0.13329125723033561</v>
       </c>
       <c r="AC1">
-        <v>0.13469432323518002</v>
+        <v>0.13651502028199752</v>
       </c>
       <c r="AD1">
-        <v>0.13790103301117568</v>
+        <v>0.1397076078728397</v>
       </c>
       <c r="AE1">
-        <v>0.14108125396382767</v>
+        <v>0.14287265281754249</v>
       </c>
       <c r="AF1">
-        <v>0.14422402313542265</v>
+        <v>0.14599926543785599</v>
       </c>
       <c r="AG1">
-        <v>0.1473425497665514</v>
+        <v>0.14909965414835433</v>
       </c>
       <c r="AH1">
-        <v>0.15044476088600064</v>
+        <v>0.15218045180354589</v>
       </c>
       <c r="AI1">
-        <v>0.15357503498514177</v>
+        <v>0.15528099462572623</v>
       </c>
       <c r="AJ1">
-        <v>0.15671067177852036</v>
+        <v>0.1583859182938949</v>
       </c>
       <c r="AK1">
-        <v>0.15984723407319501</v>
+        <v>0.16149082882814908</v>
       </c>
       <c r="AL1">
-        <v>0.16299981218658047</v>
+        <v>0.16461046109028746</v>
       </c>
       <c r="AM1">
-        <v>0.16618996582695891</v>
+        <v>0.16776442305723932</v>
       </c>
       <c r="AN1">
-        <v>0.16939576958643773</v>
+        <v>0.17093309251772812</v>
       </c>
       <c r="AO1">
-        <v>0.17261478825469967</v>
+        <v>0.17411405536255004</v>
       </c>
       <c r="AP1">
-        <v>0.17586345199843667</v>
+        <v>0.17732375832526298</v>
       </c>
       <c r="AQ1">
-        <v>0.17912797850090934</v>
+        <v>0.18054843145674934</v>
       </c>
       <c r="AR1">
-        <v>0.18241618924442793</v>
+        <v>0.18379590469525536</v>
       </c>
       <c r="AS1">
-        <v>0.18572211654801282</v>
+        <v>0.18706021514967333</v>
       </c>
       <c r="AT1">
-        <v>0.18909089850313116</v>
+        <v>0.19038650224361406</v>
       </c>
       <c r="AU1">
-        <v>0.1924868102507229</v>
+        <v>0.19373903916740101</v>
       </c>
       <c r="AV1">
-        <v>0.19591235662823892</v>
+        <v>0.19712032567001103</v>
       </c>
       <c r="AW1">
-        <v>0.19935640697568061</v>
+        <v>0.20051922298271557</v>
       </c>
       <c r="AX1">
-        <v>0.20283396152227279</v>
+        <v>0.20394622824389444</v>
       </c>
       <c r="AY1">
-        <v>0.20638387129276847</v>
+        <v>0.2074440321589083</v>
       </c>
       <c r="AZ1">
-        <v>0.20997209984272686</v>
+        <v>0.21097900362428362</v>
       </c>
       <c r="BA1">
-        <v>0.21358642598654687</v>
+        <v>0.21453889449187302</v>
       </c>
       <c r="BB1">
-        <v>0.21724319485156784</v>
+        <v>0.21814001950965684</v>
       </c>
       <c r="BC1">
-        <v>0.22095258887842342</v>
+        <v>0.22179252727199875</v>
       </c>
       <c r="BD1">
-        <v>0.22473144176172025</v>
+        <v>0.22551321408762268</v>
       </c>
       <c r="BE1">
-        <v>0.2285792598202272</v>
+        <v>0.22930105297847647</v>
       </c>
       <c r="BF1">
-        <v>0.23250127414347929</v>
+        <v>0.23315691140321398</v>
       </c>
       <c r="BG1">
-        <v>0.2365271063088889</v>
+        <v>0.23711494704632968</v>
       </c>
       <c r="BH1">
-        <v>0.24068106948735843</v>
+        <v>0.24118276237554701</v>
       </c>
       <c r="BI1">
-        <v>0.24490206196714748</v>
+        <v>0.24531191585454476</v>
       </c>
       <c r="BJ1">
-        <v>0.24927490828858265</v>
+        <v>0.24959028001409275</v>
       </c>
       <c r="BK1">
-        <v>0.25384060335707259</v>
+        <v>0.25402814670688267</v>
       </c>
       <c r="BL1">
-        <v>0.25859990177228287</v>
+        <v>0.25864629588752064</v>
       </c>
       <c r="BM1">
-        <v>0.26357240028602663</v>
+        <v>0.26347171626269011</v>
       </c>
       <c r="BN1">
-        <v>0.26873163854165877</v>
+        <v>0.26847755390125155</v>
       </c>
       <c r="BO1">
-        <v>0.27406413965972293</v>
+        <v>0.27362703188436471</v>
       </c>
       <c r="BP1">
-        <v>0.27965534411121634</v>
+        <v>0.27902588112653787</v>
       </c>
       <c r="BQ1">
-        <v>0.28543927841665051</v>
+        <v>0.28460791854829914</v>
       </c>
       <c r="BR1">
-        <v>0.29149915882781341</v>
+        <v>0.29045562635124722</v>
       </c>
       <c r="BS1">
-        <v>0.29790438499385763</v>
+        <v>0.29663758692879955</v>
       </c>
       <c r="BT1">
-        <v>0.30462510348492378</v>
+        <v>0.30312303436445476</v>
       </c>
       <c r="BU1">
-        <v>0.31160642675746847</v>
+        <v>0.30985605914160319</v>
       </c>
       <c r="BV1">
-        <v>0.31887501055561018</v>
+        <v>0.31686216855361693</v>
       </c>
       <c r="BW1">
-        <v>0.32674490466962447</v>
+        <v>0.32445230548838372</v>
       </c>
       <c r="BX1">
-        <v>0.33518633296278966</v>
+        <v>0.3325969739834454</v>
       </c>
       <c r="BY1">
-        <v>0.3441536204823496</v>
+        <v>0.34127507041898647</v>
       </c>
       <c r="BZ1">
-        <v>0.35376188388409768</v>
+        <v>0.350577358127448</v>
       </c>
       <c r="CA1">
-        <v>0.36404518719227746</v>
+        <v>0.36053635974585857</v>
       </c>
       <c r="CB1">
-        <v>0.37542398601982108</v>
+        <v>0.37157079101724233</v>
       </c>
       <c r="CC1">
-        <v>0.38784041058245622</v>
+        <v>0.38361867184399406</v>
       </c>
       <c r="CD1">
-        <v>0.40123274395784236</v>
+        <v>0.39657843664908299</v>
       </c>
       <c r="CE1">
-        <v>0.41617957708398889</v>
+        <v>0.411025303640073</v>
       </c>
       <c r="CF1">
-        <v>0.43297307203685642</v>
+        <v>0.42727699880143993</v>
       </c>
       <c r="CG1">
-        <v>0.4517706591484153</v>
+        <v>0.44537100150416259</v>
       </c>
       <c r="CH1">
-        <v>0.47380190383856735</v>
+        <v>0.46655259238988267</v>
       </c>
       <c r="CI1">
-        <v>0.50016726021234836</v>
+        <v>0.49191322336700238</v>
       </c>
       <c r="CJ1">
-        <v>0.53314581194138444</v>
+        <v>0.52367266515965216</v>
       </c>
       <c r="CK1">
-        <v>0.57730956947015122</v>
+        <v>0.56621103476069679</v>
       </c>
       <c r="CL1">
-        <v>0.63946012819974918</v>
+        <v>0.62588394520421364</v>
       </c>
       <c r="CM1">
-        <v>0.75937373737373737</v>
+        <v>0.74048484848484852</v>
       </c>
     </row>
     <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.86186666666666711</v>
+        <v>0.86346666666666705</v>
       </c>
       <c r="B2">
-        <v>0.64943625946341332</v>
+        <v>0.65252165042256693</v>
       </c>
       <c r="C2">
-        <v>0.5797546351582552</v>
+        <v>0.58458043682009686</v>
       </c>
       <c r="D2">
-        <v>0.5353268139273899</v>
+        <v>0.54117267873929253</v>
       </c>
       <c r="E2">
-        <v>0.50127534438686805</v>
+        <v>0.50786971544591242</v>
       </c>
       <c r="F2">
-        <v>0.47407395928658252</v>
+        <v>0.48104381329320495</v>
       </c>
       <c r="G2">
-        <v>0.45138117718462689</v>
+        <v>0.45783819707420748</v>
       </c>
       <c r="H2">
-        <v>0.43181585648293158</v>
+        <v>0.43805209201189599</v>
       </c>
       <c r="I2">
-        <v>0.4148735931083567</v>
+        <v>0.42098154683764522</v>
       </c>
       <c r="J2">
-        <v>0.40008232356178036</v>
+        <v>0.40590737086254919</v>
       </c>
       <c r="K2">
-        <v>0.38657413582667799</v>
+        <v>0.3919786729608557</v>
       </c>
       <c r="L2">
-        <v>0.37435156461229491</v>
+        <v>0.37942248876271029</v>
       </c>
       <c r="M2">
-        <v>0.36306221792827542</v>
+        <v>0.36785655877905188</v>
       </c>
       <c r="N2">
-        <v>0.35259341023459195</v>
+        <v>0.35719441389955864</v>
       </c>
       <c r="O2">
-        <v>0.34285229859664246</v>
+        <v>0.34730804412010541</v>
       </c>
       <c r="P2">
-        <v>0.33390542910638438</v>
+        <v>0.33824459435757986</v>
       </c>
       <c r="Q2">
-        <v>0.32553766664805317</v>
+        <v>0.32978223831981268</v>
       </c>
       <c r="R2">
-        <v>0.3176120774713766</v>
+        <v>0.3217724905676812</v>
       </c>
       <c r="S2">
-        <v>0.31020624585531886</v>
+        <v>0.31418481484148575</v>
       </c>
       <c r="T2">
-        <v>0.30321583047215611</v>
+        <v>0.30708835887601177</v>
       </c>
       <c r="U2">
-        <v>0.29666486994020869</v>
+        <v>0.30044868558350063</v>
       </c>
       <c r="V2">
-        <v>0.2904598302750423</v>
+        <v>0.29416614775817146</v>
       </c>
       <c r="W2">
-        <v>0.28450726401110554</v>
+        <v>0.28818290531765212</v>
       </c>
       <c r="X2">
-        <v>0.27880301083557407</v>
+        <v>0.28249510881964141</v>
       </c>
       <c r="Y2">
-        <v>0.27333334750042731</v>
+        <v>0.27704560003197742</v>
       </c>
       <c r="Z2">
-        <v>0.26804876198293204</v>
+        <v>0.27174651488258894</v>
       </c>
       <c r="AA2">
-        <v>0.2629603731545942</v>
+        <v>0.26661189721285339</v>
       </c>
       <c r="AB2">
-        <v>0.25803830016818097</v>
+        <v>0.26159882173224597</v>
       </c>
       <c r="AC2">
-        <v>0.25332317844031627</v>
+        <v>0.25674741156164388</v>
       </c>
       <c r="AD2">
-        <v>0.24878004905342188</v>
+        <v>0.25203919637733668</v>
       </c>
       <c r="AE2">
-        <v>0.24435989986087775</v>
+        <v>0.24746269369213242</v>
       </c>
       <c r="AF2">
-        <v>0.24002908256633027</v>
+        <v>0.24298358190647079</v>
       </c>
       <c r="AG2">
-        <v>0.23579736998836157</v>
+        <v>0.23860932480169011</v>
       </c>
       <c r="AH2">
-        <v>0.23166461627781515</v>
+        <v>0.23433734590975419</v>
       </c>
       <c r="AI2">
-        <v>0.22768435260694969</v>
+        <v>0.23021354178393821</v>
       </c>
       <c r="AJ2">
-        <v>0.22380603353571182</v>
+        <v>0.22619853350744562</v>
       </c>
       <c r="AK2">
-        <v>0.22001084301566923</v>
+        <v>0.22227305712096929</v>
       </c>
       <c r="AL2">
-        <v>0.21630805668730102</v>
+        <v>0.21844545997441403</v>
       </c>
       <c r="AM2">
-        <v>0.21271345611466988</v>
+        <v>0.21472866947181321</v>
       </c>
       <c r="AN2">
-        <v>0.20918635419135878</v>
+        <v>0.21108478990788537</v>
       </c>
       <c r="AO2">
-        <v>0.20571429403742728</v>
+        <v>0.20750105099946625</v>
       </c>
       <c r="AP2">
-        <v>0.20230775916383015</v>
+        <v>0.20398764942707603</v>
       </c>
       <c r="AQ2">
-        <v>0.19894177467916435</v>
+        <v>0.20051934750864639</v>
       </c>
       <c r="AR2">
-        <v>0.19561741354766571</v>
+        <v>0.19709697722587063</v>
       </c>
       <c r="AS2">
-        <v>0.19232088162681246</v>
+        <v>0.19370652329167271</v>
       </c>
       <c r="AT2">
-        <v>0.18909089850313118</v>
+        <v>0.19038650224361409</v>
       </c>
       <c r="AU2">
-        <v>0.18588235195754244</v>
+        <v>0.18709161536586735</v>
       </c>
       <c r="AV2">
-        <v>0.18269122811661442</v>
+        <v>0.1838176774716542</v>
       </c>
       <c r="AW2">
-        <v>0.17950131509758882</v>
+        <v>0.1805483193330974</v>
       </c>
       <c r="AX2">
-        <v>0.17632087273003855</v>
+        <v>0.17728775144005859</v>
       </c>
       <c r="AY2">
-        <v>0.17317663028270128</v>
+        <v>0.17406621087446783</v>
       </c>
       <c r="AZ2">
-        <v>0.17003205386906819</v>
+        <v>0.17084742847433654</v>
       </c>
       <c r="BA2">
-        <v>0.16687200464022983</v>
+        <v>0.16761615459314147</v>
       </c>
       <c r="BB2">
-        <v>0.16370448933766937</v>
+        <v>0.16438029519100439</v>
       </c>
       <c r="BC2">
-        <v>0.16053145249305892</v>
+        <v>0.16114170345689591</v>
       </c>
       <c r="BD2">
-        <v>0.15735864959429291</v>
+        <v>0.15790605247005346</v>
       </c>
       <c r="BE2">
-        <v>0.1541786575222811</v>
+        <v>0.15466551315491883</v>
       </c>
       <c r="BF2">
-        <v>0.15098809285687165</v>
+        <v>0.15141386867172654</v>
       </c>
       <c r="BG2">
-        <v>0.14779853962822401</v>
+        <v>0.14816586328885453</v>
       </c>
       <c r="BH2">
-        <v>0.14461577640038945</v>
+        <v>0.14491722389974815</v>
       </c>
       <c r="BI2">
-        <v>0.14139427140182709</v>
+        <v>0.14163090065404429</v>
       </c>
       <c r="BJ2">
-        <v>0.13817533796442028</v>
+        <v>0.1383501513664428</v>
       </c>
       <c r="BK2">
-        <v>0.13496944294359592</v>
+        <v>0.13506916151153534</v>
       </c>
       <c r="BL2">
-        <v>0.1317632311897376</v>
+        <v>0.13178687017215801</v>
       </c>
       <c r="BM2">
-        <v>0.12855284906602116</v>
+        <v>0.12850374218669203</v>
       </c>
       <c r="BN2">
-        <v>0.12531162104051652</v>
+        <v>0.12519313942687504</v>
       </c>
       <c r="BO2">
-        <v>0.12202121659091347</v>
+        <v>0.12182660367075257</v>
       </c>
       <c r="BP2">
-        <v>0.11870665079364234</v>
+        <v>0.11843945960891021</v>
       </c>
       <c r="BQ2">
-        <v>0.11532495436378984</v>
+        <v>0.11498906317386902</v>
       </c>
       <c r="BR2">
-        <v>0.11189604331707402</v>
+        <v>0.11149546872992881</v>
       </c>
       <c r="BS2">
-        <v>0.10842832879514329</v>
+        <v>0.10796725200663612</v>
       </c>
       <c r="BT2">
-        <v>0.10489083483108104</v>
+        <v>0.10437363095583382</v>
       </c>
       <c r="BU2">
-        <v>0.10124706552625799</v>
+        <v>0.10067833661221513</v>
       </c>
       <c r="BV2">
-        <v>9.7489874277304198E-2</v>
+        <v>9.6874486720366165E-2</v>
       </c>
       <c r="BW2">
-        <v>9.3692593734216401E-2</v>
+        <v>9.3035201497601194E-2</v>
       </c>
       <c r="BX2">
-        <v>8.9812907231328815E-2</v>
+        <v>8.9119090583899288E-2</v>
       </c>
       <c r="BY2">
-        <v>8.5807134866114243E-2</v>
+        <v>8.5089431727731799E-2</v>
       </c>
       <c r="BZ2">
-        <v>8.1672366221493084E-2</v>
+        <v>8.0937160520462612E-2</v>
       </c>
       <c r="CA2">
-        <v>7.7380193282110141E-2</v>
+        <v>7.6634368984605961E-2</v>
       </c>
       <c r="CB2">
-        <v>7.297503046024735E-2</v>
+        <v>7.2226045224478189E-2</v>
       </c>
       <c r="CC2">
-        <v>6.8386728594735949E-2</v>
+        <v>6.7642322149642928E-2</v>
       </c>
       <c r="CD2">
-        <v>6.3549023591640899E-2</v>
+        <v>6.2811853733444639E-2</v>
       </c>
       <c r="CE2">
-        <v>5.849022514947215E-2</v>
+        <v>5.7765839257379839E-2</v>
       </c>
       <c r="CF2">
-        <v>5.3162408532827082E-2</v>
+        <v>5.2463018681745674E-2</v>
       </c>
       <c r="CG2">
-        <v>4.7483009645264744E-2</v>
+        <v>4.6810378522603432E-2</v>
       </c>
       <c r="CH2">
-        <v>4.1452295342874583E-2</v>
+        <v>4.081806277274598E-2</v>
       </c>
       <c r="CI2">
-        <v>3.4975101945169819E-2</v>
+        <v>3.4397923462910505E-2</v>
       </c>
       <c r="CJ2">
-        <v>2.7940988037901952E-2</v>
+        <v>2.7444521452249074E-2</v>
       </c>
       <c r="CK2">
-        <v>2.0160094400847334E-2</v>
+        <v>1.9772525028562318E-2</v>
       </c>
       <c r="CL2">
-        <v>1.1161818056732872E-2</v>
+        <v>1.0924844901068438E-2</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -983,546 +983,546 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1.1448974417542895E-2</v>
+        <v>1.1473670408890566E-2</v>
       </c>
       <c r="C3">
-        <v>2.0400437787204181E-2</v>
+        <v>2.0494690584414589E-2</v>
       </c>
       <c r="D3">
-        <v>2.8281002151898917E-2</v>
+        <v>2.8447116986809795E-2</v>
       </c>
       <c r="E3">
-        <v>3.5428494543955108E-2</v>
+        <v>3.5635571135237375E-2</v>
       </c>
       <c r="F3">
-        <v>4.1995650849211356E-2</v>
+        <v>4.2232540266840514E-2</v>
       </c>
       <c r="G3">
-        <v>4.8056893052324232E-2</v>
+        <v>4.8295690705336833E-2</v>
       </c>
       <c r="H3">
-        <v>5.3768184980276253E-2</v>
+        <v>5.4046302160705023E-2</v>
       </c>
       <c r="I3">
-        <v>5.9126444212763689E-2</v>
+        <v>5.9452453720281656E-2</v>
       </c>
       <c r="J3">
-        <v>6.4223518390301548E-2</v>
+        <v>6.4575823040929375E-2</v>
       </c>
       <c r="K3">
-        <v>6.9107028517517155E-2</v>
+        <v>6.946217590935623E-2</v>
       </c>
       <c r="L3">
-        <v>7.3803339802010315E-2</v>
+        <v>7.4166593805190945E-2</v>
       </c>
       <c r="M3">
-        <v>7.8300648095465636E-2</v>
+        <v>7.8682038241195892E-2</v>
       </c>
       <c r="N3">
-        <v>8.2642281159110736E-2</v>
+        <v>8.3044920225176663E-2</v>
       </c>
       <c r="O3">
-        <v>8.6874337256174841E-2</v>
+        <v>8.7302124006610041E-2</v>
       </c>
       <c r="P3">
-        <v>9.09536897817287E-2</v>
+        <v>9.1408324195446658E-2</v>
       </c>
       <c r="Q3">
-        <v>9.489838643060261E-2</v>
+        <v>9.5382910461740217E-2</v>
       </c>
       <c r="R3">
-        <v>9.8704640370530575E-2</v>
+        <v>9.9221665302476711E-2</v>
       </c>
       <c r="S3">
-        <v>0.10241104242529181</v>
+        <v>0.10292031187798192</v>
       </c>
       <c r="T3">
-        <v>0.10602884911808158</v>
+        <v>0.10655895705416776</v>
       </c>
       <c r="U3">
-        <v>0.10958586313677735</v>
+        <v>0.11013995540844118</v>
       </c>
       <c r="V3">
-        <v>0.11306454158288799</v>
+        <v>0.11364576197822705</v>
       </c>
       <c r="W3">
-        <v>0.11647996677148892</v>
+        <v>0.11710798801197049</v>
       </c>
       <c r="X3">
-        <v>0.11983158859231059</v>
+        <v>0.12052325460906782</v>
       </c>
       <c r="Y3">
-        <v>0.12313033860303629</v>
+        <v>0.12387171282618209</v>
       </c>
       <c r="Z3">
-        <v>0.12639686848144416</v>
+        <v>0.12716941939202933</v>
       </c>
       <c r="AA3">
-        <v>0.12964350782308179</v>
+        <v>0.13043258826396747</v>
       </c>
       <c r="AB3">
-        <v>0.13284172688126039</v>
+        <v>0.13362692182576807</v>
       </c>
       <c r="AC3">
-        <v>0.13600645563067709</v>
+        <v>0.13676814014593547</v>
       </c>
       <c r="AD3">
-        <v>0.13917047119051371</v>
+        <v>0.13988849352538485</v>
       </c>
       <c r="AE3">
-        <v>0.14230688087695481</v>
+        <v>0.14298065879602162</v>
       </c>
       <c r="AF3">
-        <v>0.145407846305</v>
+        <v>0.14603685171401626</v>
       </c>
       <c r="AG3">
-        <v>0.1485028744288121</v>
+        <v>0.14908344199667165</v>
       </c>
       <c r="AH3">
-        <v>0.15156808963022195</v>
+        <v>0.15209866603356281</v>
       </c>
       <c r="AI3">
-        <v>0.15461899371896254</v>
+        <v>0.1550876357568548</v>
       </c>
       <c r="AJ3">
-        <v>0.15769060578136401</v>
+        <v>0.1580903634964973</v>
       </c>
       <c r="AK3">
-        <v>0.16074944960271476</v>
+        <v>0.16107899404446083</v>
       </c>
       <c r="AL3">
-        <v>0.16380165307792258</v>
+        <v>0.16405965743105233</v>
       </c>
       <c r="AM3">
-        <v>0.16684461159727679</v>
+        <v>0.16702974399909526</v>
       </c>
       <c r="AN3">
-        <v>0.16987309429163391</v>
+        <v>0.16998818720065562</v>
       </c>
       <c r="AO3">
-        <v>0.17291654432973602</v>
+        <v>0.17296179661528113</v>
       </c>
       <c r="AP3">
-        <v>0.17597561365459924</v>
+        <v>0.17594997650466657</v>
       </c>
       <c r="AQ3">
-        <v>0.17902854835567358</v>
+        <v>0.1789314025195734</v>
       </c>
       <c r="AR3">
-        <v>0.1820860418792673</v>
+        <v>0.18191834228692463</v>
       </c>
       <c r="AS3">
-        <v>0.18518261796844804</v>
+        <v>0.18494333391335938</v>
       </c>
       <c r="AT3">
-        <v>0.1883158691412665</v>
+        <v>0.188003943144016</v>
       </c>
       <c r="AU3">
-        <v>0.19146385628910703</v>
+        <v>0.19107820017922847</v>
       </c>
       <c r="AV3">
-        <v>0.19464761523789684</v>
+        <v>0.19418710627081545</v>
       </c>
       <c r="AW3">
-        <v>0.19789306160904796</v>
+        <v>0.19735653858490262</v>
       </c>
       <c r="AX3">
-        <v>0.20116915071287317</v>
+        <v>0.2005554100653861</v>
       </c>
       <c r="AY3">
-        <v>0.20446839862223595</v>
+        <v>0.20377619044667347</v>
       </c>
       <c r="AZ3">
-        <v>0.20778074930949594</v>
+        <v>0.20700877329917339</v>
       </c>
       <c r="BA3">
-        <v>0.21116868572738956</v>
+        <v>0.21031474638658568</v>
       </c>
       <c r="BB3">
-        <v>0.214591317174195</v>
+        <v>0.21366183075159331</v>
       </c>
       <c r="BC3">
-        <v>0.21809115745724944</v>
+        <v>0.21706629190824483</v>
       </c>
       <c r="BD3">
-        <v>0.22164136415352531</v>
+        <v>0.22051844976062118</v>
       </c>
       <c r="BE3">
-        <v>0.22525689884685357</v>
+        <v>0.2240338053018209</v>
       </c>
       <c r="BF3">
-        <v>0.22899549623158438</v>
+        <v>0.22766998202393152</v>
       </c>
       <c r="BG3">
-        <v>0.23287551119846348</v>
+        <v>0.23144521433178011</v>
       </c>
       <c r="BH3">
-        <v>0.2368101809386885</v>
+        <v>0.23527201459553115</v>
       </c>
       <c r="BI3">
-        <v>0.24081121741998776</v>
+        <v>0.23916006955954339</v>
       </c>
       <c r="BJ3">
-        <v>0.24490872747099149</v>
+        <v>0.24313847886245948</v>
       </c>
       <c r="BK3">
-        <v>0.24915261075146752</v>
+        <v>0.24726006790237143</v>
       </c>
       <c r="BL3">
-        <v>0.25355541092338796</v>
+        <v>0.25153718663727764</v>
       </c>
       <c r="BM3">
-        <v>0.25819713269098143</v>
+        <v>0.25604962871610926</v>
       </c>
       <c r="BN3">
-        <v>0.26299586884362502</v>
+        <v>0.26071525657723571</v>
       </c>
       <c r="BO3">
-        <v>0.26803563189631258</v>
+        <v>0.26561783084532431</v>
       </c>
       <c r="BP3">
-        <v>0.27327509469804001</v>
+        <v>0.27071629910604966</v>
       </c>
       <c r="BQ3">
-        <v>0.2787507458711353</v>
+        <v>0.27604623957400709</v>
       </c>
       <c r="BR3">
-        <v>0.28451702245724109</v>
+        <v>0.28161022703317107</v>
       </c>
       <c r="BS3">
-        <v>0.29055813555138205</v>
+        <v>0.28744035665209139</v>
       </c>
       <c r="BT3">
-        <v>0.29698960196888075</v>
+        <v>0.29365148169843047</v>
       </c>
       <c r="BU3">
-        <v>0.30402353336658761</v>
+        <v>0.30045497833155027</v>
       </c>
       <c r="BV3">
-        <v>0.31154015368339233</v>
+        <v>0.30773025302607637</v>
       </c>
       <c r="BW3">
-        <v>0.3195677576693719</v>
+        <v>0.31550468932285691</v>
       </c>
       <c r="BX3">
-        <v>0.32817634761589154</v>
+        <v>0.32384821021834098</v>
       </c>
       <c r="BY3">
-        <v>0.33739289822519036</v>
+        <v>0.33278740988855049</v>
       </c>
       <c r="BZ3">
-        <v>0.34730375508736605</v>
+        <v>0.34240587112958371</v>
       </c>
       <c r="CA3">
-        <v>0.35816469065595991</v>
+        <v>0.35295793470410375</v>
       </c>
       <c r="CB3">
-        <v>0.36999080416629382</v>
+        <v>0.36445707506071157</v>
       </c>
       <c r="CC3">
-        <v>0.38285634395041496</v>
+        <v>0.37694193096867612</v>
       </c>
       <c r="CD3">
-        <v>0.39650679095562069</v>
+        <v>0.3901554888150352</v>
       </c>
       <c r="CE3">
-        <v>0.41131569399275753</v>
+        <v>0.40449178759319721</v>
       </c>
       <c r="CF3">
-        <v>0.42819054850260818</v>
+        <v>0.42072682853468285</v>
       </c>
       <c r="CG3">
-        <v>0.44719568929110026</v>
+        <v>0.43902408163316653</v>
       </c>
       <c r="CH3">
-        <v>0.46845551792867712</v>
+        <v>0.459495984826505</v>
       </c>
       <c r="CI3">
-        <v>0.49425750657330636</v>
+        <v>0.48441422007766732</v>
       </c>
       <c r="CJ3">
-        <v>0.52711055665852291</v>
+        <v>0.51624290499304881</v>
       </c>
       <c r="CK3">
-        <v>0.57193088248031854</v>
+        <v>0.55898488599836649</v>
       </c>
       <c r="CL3">
-        <v>0.64475654348894551</v>
+        <v>0.62876954619949332</v>
       </c>
       <c r="CM3">
-        <v>0.76125252525252529</v>
+        <v>0.73971717171717188</v>
       </c>
     </row>
     <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.84926666666666673</v>
+        <v>0.85293333333333332</v>
       </c>
       <c r="B4">
-        <v>0.65591130509257856</v>
+        <v>0.65732613748932012</v>
       </c>
       <c r="C4">
-        <v>0.58419210355674123</v>
+        <v>0.58689115053028185</v>
       </c>
       <c r="D4">
-        <v>0.53963366772631849</v>
+        <v>0.54280332759711247</v>
       </c>
       <c r="E4">
-        <v>0.50665107645084173</v>
+        <v>0.50961240967234689</v>
       </c>
       <c r="F4">
-        <v>0.48001248569498955</v>
+        <v>0.48272014412846131</v>
       </c>
       <c r="G4">
-        <v>0.45723079503741038</v>
+        <v>0.45950280293898521</v>
       </c>
       <c r="H4">
-        <v>0.43790672528278995</v>
+        <v>0.44017180794777339</v>
       </c>
       <c r="I4">
-        <v>0.42070651094373779</v>
+        <v>0.42302618912274054</v>
       </c>
       <c r="J4">
-        <v>0.4054913365145269</v>
+        <v>0.40771570053605544</v>
       </c>
       <c r="K4">
-        <v>0.39192543443919736</v>
+        <v>0.39393957538581903</v>
       </c>
       <c r="L4">
-        <v>0.37968526817045356</v>
+        <v>0.3815540480113338</v>
       </c>
       <c r="M4">
-        <v>0.36837558662160469</v>
+        <v>0.37016988618466562</v>
       </c>
       <c r="N4">
-        <v>0.35796304703649612</v>
+        <v>0.3597070684372049</v>
       </c>
       <c r="O4">
-        <v>0.34843393548062862</v>
+        <v>0.35014969442289334</v>
       </c>
       <c r="P4">
-        <v>0.3394437914012699</v>
+        <v>0.34114051013213464</v>
       </c>
       <c r="Q4">
-        <v>0.33095000353527942</v>
+        <v>0.33263973963985677</v>
       </c>
       <c r="R4">
-        <v>0.32284833141248526</v>
+        <v>0.32453944376496291</v>
       </c>
       <c r="S4">
-        <v>0.31518877929727696</v>
+        <v>0.31675614950780767</v>
       </c>
       <c r="T4">
-        <v>0.30793013695618104</v>
+        <v>0.30946968219050491</v>
       </c>
       <c r="U4">
-        <v>0.30108468445974046</v>
+        <v>0.30260704046443115</v>
       </c>
       <c r="V4">
-        <v>0.29454320088219932</v>
+        <v>0.29605733177827415</v>
       </c>
       <c r="W4">
-        <v>0.2882980344424792</v>
+        <v>0.28985244155846135</v>
       </c>
       <c r="X4">
-        <v>0.2823055314856136</v>
+        <v>0.28393499450755111</v>
       </c>
       <c r="Y4">
-        <v>0.27655526848569745</v>
+        <v>0.27822042225410754</v>
       </c>
       <c r="Z4">
-        <v>0.27105895918919343</v>
+        <v>0.27271569996338935</v>
       </c>
       <c r="AA4">
-        <v>0.26580858212548003</v>
+        <v>0.26742643678474304</v>
       </c>
       <c r="AB4">
-        <v>0.26071656874660748</v>
+        <v>0.26225760059356779</v>
       </c>
       <c r="AC4">
-        <v>0.25579094056256613</v>
+        <v>0.25722346078865704</v>
       </c>
       <c r="AD4">
-        <v>0.25107017615131255</v>
+        <v>0.25236552273277157</v>
       </c>
       <c r="AE4">
-        <v>0.24648274794553754</v>
+        <v>0.24764976553437928</v>
       </c>
       <c r="AF4">
-        <v>0.24199929517818916</v>
+        <v>0.24304613597470237</v>
       </c>
       <c r="AG4">
-        <v>0.23765427761027522</v>
+        <v>0.2385833799355622</v>
       </c>
       <c r="AH4">
-        <v>0.23339439085388711</v>
+        <v>0.23421140686801845</v>
       </c>
       <c r="AI4">
-        <v>0.22923208507845036</v>
+        <v>0.22992687547203375</v>
       </c>
       <c r="AJ4">
-        <v>0.2252055243286116</v>
+        <v>0.22577643751265888</v>
       </c>
       <c r="AK4">
-        <v>0.2212526361588687</v>
+        <v>0.22170621517047975</v>
       </c>
       <c r="AL4">
-        <v>0.21737213548992013</v>
+        <v>0.21771451883069656</v>
       </c>
       <c r="AM4">
-        <v>0.21355136449043888</v>
+        <v>0.21378832315899426</v>
       </c>
       <c r="AN4">
-        <v>0.20977580111254945</v>
+        <v>0.20991792901863768</v>
       </c>
       <c r="AO4">
-        <v>0.20607391292393892</v>
+        <v>0.20612784249781044</v>
       </c>
       <c r="AP4">
-        <v>0.20243678638958124</v>
+        <v>0.20240729422224749</v>
       </c>
       <c r="AQ4">
-        <v>0.19883134631551436</v>
+        <v>0.19872345493417798</v>
       </c>
       <c r="AR4">
-        <v>0.19526337384357018</v>
+        <v>0.195083538048058</v>
       </c>
       <c r="AS4">
-        <v>0.19176221449342618</v>
+        <v>0.19151442860077514</v>
       </c>
       <c r="AT4">
-        <v>0.18831586914126652</v>
+        <v>0.18800394314401603</v>
       </c>
       <c r="AU4">
-        <v>0.18489449679966558</v>
+        <v>0.18452207302342011</v>
       </c>
       <c r="AV4">
-        <v>0.1815118376900578</v>
+        <v>0.18108240613095283</v>
       </c>
       <c r="AW4">
-        <v>0.17818371301126834</v>
+        <v>0.17770062551046897</v>
       </c>
       <c r="AX4">
-        <v>0.1748736747724545</v>
+        <v>0.1743401581671353</v>
       </c>
       <c r="AY4">
-        <v>0.17156935787132718</v>
+        <v>0.17098852624651481</v>
       </c>
       <c r="AZ4">
-        <v>0.16825753319612427</v>
+        <v>0.16763239934895552</v>
       </c>
       <c r="BA4">
-        <v>0.16498305892712367</v>
+        <v>0.16431588839424499</v>
       </c>
       <c r="BB4">
-        <v>0.16170615617350806</v>
+        <v>0.16100573791524095</v>
       </c>
       <c r="BC4">
-        <v>0.15845250087460527</v>
+        <v>0.15770789246776584</v>
       </c>
       <c r="BD4">
-        <v>0.15519495395938182</v>
+        <v>0.15440868083670617</v>
       </c>
       <c r="BE4">
-        <v>0.15193769674971574</v>
+        <v>0.15111270973669622</v>
       </c>
       <c r="BF4">
-        <v>0.14871141406082294</v>
+        <v>0.14785061506948202</v>
       </c>
       <c r="BG4">
-        <v>0.14551676975813724</v>
+        <v>0.14462302108201486</v>
       </c>
       <c r="BH4">
-        <v>0.14228991191084911</v>
+        <v>0.1413656883297322</v>
       </c>
       <c r="BI4">
-        <v>0.13903242120131146</v>
+        <v>0.13807913053961199</v>
       </c>
       <c r="BJ4">
-        <v>0.13575512441695003</v>
+        <v>0.13477385958991903</v>
       </c>
       <c r="BK4">
-        <v>0.1324767930596365</v>
+        <v>0.13147051017694861</v>
       </c>
       <c r="BL4">
-        <v>0.12919293472248389</v>
+        <v>0.12816459808592295</v>
       </c>
       <c r="BM4">
-        <v>0.12593115588765555</v>
+        <v>0.12488374821503567</v>
       </c>
       <c r="BN4">
-        <v>0.12263698770490995</v>
+        <v>0.12157352073981037</v>
       </c>
       <c r="BO4">
-        <v>0.11933715200503793</v>
+        <v>0.11826067762176885</v>
       </c>
       <c r="BP4">
-        <v>0.11599839559661294</v>
+        <v>0.11491225130798491</v>
       </c>
       <c r="BQ4">
-        <v>0.11262261180304969</v>
+        <v>0.11152992033107358</v>
       </c>
       <c r="BR4">
-        <v>0.10921585227669853</v>
+        <v>0.10810003805619252</v>
       </c>
       <c r="BS4">
-        <v>0.10575451266458746</v>
+        <v>0.10461973394822242</v>
       </c>
       <c r="BT4">
-        <v>0.10226172081779236</v>
+        <v>0.10111231383219436</v>
       </c>
       <c r="BU4">
-        <v>9.8783234109126608E-2</v>
+        <v>9.7623740291151839E-2</v>
       </c>
       <c r="BV4">
-        <v>9.5247383487359297E-2</v>
+        <v>9.4082579963108287E-2</v>
       </c>
       <c r="BW4">
-        <v>9.1634579948981318E-2</v>
+        <v>9.0469513848595487E-2</v>
       </c>
       <c r="BX4">
-        <v>8.7934587318673499E-2</v>
+        <v>8.6774866398268882E-2</v>
       </c>
       <c r="BY4">
-        <v>8.4121497487959315E-2</v>
+        <v>8.297322027886736E-2</v>
       </c>
       <c r="BZ4">
-        <v>8.0181389708135792E-2</v>
+        <v>7.9050624098459671E-2</v>
       </c>
       <c r="CA4">
-        <v>7.6130255157438015E-2</v>
+        <v>7.502352501485654E-2</v>
       </c>
       <c r="CB4">
-        <v>7.1918926891957335E-2</v>
+        <v>7.0843278917729846E-2</v>
       </c>
       <c r="CC4">
-        <v>6.7507903173858241E-2</v>
+        <v>6.6465032590125303E-2</v>
       </c>
       <c r="CD4">
-        <v>6.2800506170383935E-2</v>
+        <v>6.1794558735515259E-2</v>
       </c>
       <c r="CE4">
-        <v>5.7806650959935715E-2</v>
+        <v>5.6847613458610502E-2</v>
       </c>
       <c r="CF4">
-        <v>5.2575188480666633E-2</v>
+        <v>5.1658758901702677E-2</v>
       </c>
       <c r="CG4">
-        <v>4.7002160937048128E-2</v>
+        <v>4.6143290363269848E-2</v>
       </c>
       <c r="CH4">
-        <v>4.0984547184924461E-2</v>
+        <v>4.0200689607999142E-2</v>
       </c>
       <c r="CI4">
-        <v>3.4561851713820022E-2</v>
+        <v>3.3873542070133364E-2</v>
       </c>
       <c r="CJ4">
-        <v>2.7624693711120914E-2</v>
+        <v>2.7055144221311781E-2</v>
       </c>
       <c r="CK4">
-        <v>1.9972266512307137E-2</v>
+        <v>1.9520182353319905E-2</v>
       </c>
       <c r="CL4">
-        <v>1.1254267329492602E-2</v>
+        <v>1.097521325379798E-2</v>
       </c>
       <c r="CM4">
         <v>0</v>
